--- a/left_hip_Data_Variable.xlsx
+++ b/left_hip_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.1058959960938</v>
+        <v>394.1000671386719</v>
       </c>
       <c r="B2" t="n">
-        <v>320.6183471679688</v>
+        <v>398.3880004882812</v>
       </c>
       <c r="C2" t="n">
-        <v>324.5652465820312</v>
+        <v>401.2085266113281</v>
       </c>
       <c r="D2" t="n">
-        <v>327.5870361328125</v>
+        <v>405.5587768554688</v>
       </c>
       <c r="E2" t="n">
-        <v>327.1533508300781</v>
+        <v>411.7179565429688</v>
       </c>
       <c r="F2" t="n">
-        <v>324.5150146484375</v>
+        <v>417.7596435546875</v>
       </c>
       <c r="G2" t="n">
-        <v>326.8218994140625</v>
+        <v>424.52490234375</v>
       </c>
       <c r="H2" t="n">
-        <v>292.4452209472656</v>
+        <v>432.0303955078125</v>
       </c>
       <c r="I2" t="n">
-        <v>333.7944946289062</v>
+        <v>439.4346618652344</v>
       </c>
       <c r="J2" t="n">
-        <v>301.6660766601562</v>
+        <v>444.1869812011719</v>
       </c>
       <c r="K2" t="n">
-        <v>312.0355529785156</v>
+        <v>448.5088500976562</v>
       </c>
       <c r="L2" t="n">
-        <v>344.2912292480469</v>
+        <v>451.1959228515625</v>
       </c>
       <c r="M2" t="n">
-        <v>320.4899597167969</v>
+        <v>469.1568603515625</v>
       </c>
       <c r="N2" t="n">
-        <v>319.2328796386719</v>
+        <v>468.432861328125</v>
       </c>
       <c r="O2" t="n">
-        <v>348.6646728515625</v>
+        <v>467.5248718261719</v>
       </c>
       <c r="P2" t="n">
-        <v>358.3498840332031</v>
+        <v>465.1896667480469</v>
       </c>
       <c r="Q2" t="n">
-        <v>354.897705078125</v>
+        <v>463.4547424316406</v>
       </c>
       <c r="R2" t="n">
-        <v>354.8804016113281</v>
+        <v>462.6326904296875</v>
       </c>
       <c r="S2" t="n">
-        <v>357.2125854492188</v>
+        <v>462.6812133789062</v>
       </c>
       <c r="T2" t="n">
-        <v>359.6615600585938</v>
+        <v>461.1864929199219</v>
       </c>
       <c r="U2" t="n">
-        <v>360.519775390625</v>
+        <v>458.1555786132812</v>
       </c>
       <c r="V2" t="n">
-        <v>359.8056335449219</v>
+        <v>453.0278930664062</v>
       </c>
       <c r="W2" t="n">
-        <v>358.4365234375</v>
+        <v>447.181640625</v>
       </c>
       <c r="X2" t="n">
-        <v>357.9453735351562</v>
+        <v>442.591796875</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.6676025390625</v>
+        <v>436.6593017578125</v>
       </c>
       <c r="Z2" t="n">
-        <v>357.6583557128906</v>
+        <v>433.2500610351562</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.6387023925781</v>
+        <v>430.3552551269531</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.9996337890625</v>
+        <v>428.4781494140625</v>
       </c>
       <c r="AC2" t="n">
-        <v>356.0271606445312</v>
+        <v>425.7373352050781</v>
       </c>
       <c r="AD2" t="n">
-        <v>355.2249755859375</v>
+        <v>422.6392822265625</v>
       </c>
       <c r="AE2" t="n">
-        <v>354.525146484375</v>
+        <v>420.7934265136719</v>
       </c>
       <c r="AF2" t="n">
-        <v>353.4122314453125</v>
+        <v>419.457763671875</v>
       </c>
       <c r="AG2" t="n">
-        <v>352.6656494140625</v>
+        <v>418.8420104980469</v>
       </c>
       <c r="AH2" t="n">
-        <v>352.2921752929688</v>
+        <v>418.5175170898438</v>
       </c>
       <c r="AI2" t="n">
-        <v>352.1835021972656</v>
+        <v>417.0256958007812</v>
       </c>
       <c r="AJ2" t="n">
-        <v>351.3070068359375</v>
+        <v>416.4369506835938</v>
       </c>
       <c r="AK2" t="n">
-        <v>351.5485229492188</v>
+        <v>415.3197631835938</v>
       </c>
       <c r="AL2" t="n">
-        <v>351.8494873046875</v>
+        <v>413.8166809082031</v>
       </c>
       <c r="AM2" t="n">
-        <v>350.7171020507812</v>
+        <v>411.767578125</v>
       </c>
       <c r="AN2" t="n">
-        <v>351.7558288574219</v>
+        <v>411.6962890625</v>
       </c>
       <c r="AO2" t="n">
-        <v>354.3178100585938</v>
+        <v>411.3318481445312</v>
       </c>
       <c r="AP2" t="n">
-        <v>354.3786926269531</v>
+        <v>410.7626953125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>353.1785583496094</v>
+        <v>410.5291137695312</v>
       </c>
       <c r="AR2" t="n">
-        <v>352.7410278320312</v>
+        <v>410.5310668945312</v>
       </c>
       <c r="AS2" t="n">
-        <v>352.6809997558594</v>
+        <v>410.5703125</v>
       </c>
       <c r="AT2" t="n">
-        <v>352.6458740234375</v>
+        <v>410.6893310546875</v>
       </c>
       <c r="AU2" t="n">
-        <v>353.0429077148438</v>
+        <v>410.8258666992188</v>
       </c>
       <c r="AV2" t="n">
-        <v>354.021728515625</v>
+        <v>410.9872436523438</v>
       </c>
       <c r="AW2" t="n">
-        <v>354.56591796875</v>
+        <v>411.3522338867188</v>
       </c>
       <c r="AX2" t="n">
-        <v>352.1004638671875</v>
+        <v>411.28515625</v>
       </c>
       <c r="AY2" t="n">
-        <v>350.9380493164062</v>
+        <v>410.2467651367188</v>
       </c>
       <c r="AZ2" t="n">
-        <v>349.6539916992188</v>
+        <v>408.7869262695312</v>
       </c>
       <c r="BA2" t="n">
-        <v>348.3567504882812</v>
+        <v>408.1518249511719</v>
       </c>
       <c r="BB2" t="n">
-        <v>347.360595703125</v>
+        <v>407.0271606445312</v>
       </c>
       <c r="BC2" t="n">
-        <v>348.1216430664062</v>
+        <v>405.4475708007812</v>
       </c>
       <c r="BD2" t="n">
-        <v>348.615966796875</v>
+        <v>403.4521789550781</v>
       </c>
       <c r="BE2" t="n">
-        <v>348.7108154296875</v>
+        <v>401.3524169921875</v>
       </c>
       <c r="BF2" t="n">
-        <v>348.0866088867188</v>
+        <v>398.4100036621094</v>
       </c>
       <c r="BG2" t="n">
-        <v>348.052978515625</v>
+        <v>396.595703125</v>
       </c>
       <c r="BH2" t="n">
-        <v>347.517822265625</v>
+        <v>394.5136108398438</v>
       </c>
       <c r="BI2" t="n">
-        <v>346.2584228515625</v>
+        <v>391.78125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.3569946289062</v>
+        <v>388.6552124023438</v>
       </c>
       <c r="BK2" t="n">
-        <v>341.8778991699219</v>
+        <v>384.9767456054688</v>
       </c>
       <c r="BL2" t="n">
-        <v>339.2077026367188</v>
+        <v>380.762451171875</v>
       </c>
       <c r="BM2" t="n">
-        <v>337.1179504394531</v>
+        <v>377.1680908203125</v>
       </c>
       <c r="BN2" t="n">
-        <v>335.2288513183594</v>
+        <v>372.9254455566406</v>
       </c>
       <c r="BO2" t="n">
-        <v>336.7120666503906</v>
+        <v>366.5709838867188</v>
       </c>
       <c r="BP2" t="n">
-        <v>333.7041625976562</v>
+        <v>363.3747863769531</v>
       </c>
       <c r="BQ2" t="n">
-        <v>335.6982116699219</v>
+        <v>361.010498046875</v>
       </c>
       <c r="BR2" t="n">
-        <v>332.9974670410156</v>
+        <v>358.736328125</v>
       </c>
       <c r="BS2" t="n">
-        <v>332.497314453125</v>
+        <v>356.7779846191406</v>
       </c>
       <c r="BT2" t="n">
-        <v>332.8063354492188</v>
+        <v>355.5465393066406</v>
       </c>
       <c r="BU2" t="n">
-        <v>333.0911560058594</v>
+        <v>354.8046264648438</v>
       </c>
       <c r="BV2" t="n">
-        <v>333.0513916015625</v>
+        <v>354.5060729980469</v>
       </c>
       <c r="BW2" t="n">
-        <v>332.3620300292969</v>
+        <v>354.4208374023438</v>
       </c>
       <c r="BX2" t="n">
-        <v>331.4230041503906</v>
+        <v>354.5955200195312</v>
       </c>
       <c r="BY2" t="n">
-        <v>331.4685668945312</v>
+        <v>355.8460083007812</v>
       </c>
       <c r="BZ2" t="n">
-        <v>332.1826477050781</v>
+        <v>357.4712524414062</v>
       </c>
       <c r="CA2" t="n">
-        <v>332.0455322265625</v>
+        <v>360.1119384765625</v>
       </c>
       <c r="CB2" t="n">
-        <v>330.4908447265625</v>
+        <v>363.2887268066406</v>
       </c>
       <c r="CC2" t="n">
-        <v>331.7756652832031</v>
+        <v>367.2879333496094</v>
       </c>
       <c r="CD2" t="n">
-        <v>331.4603271484375</v>
+        <v>370.9581909179688</v>
       </c>
       <c r="CE2" t="n">
-        <v>331.239501953125</v>
+        <v>377.6352233886719</v>
       </c>
       <c r="CF2" t="n">
-        <v>329.9793090820312</v>
+        <v>381.738037109375</v>
       </c>
       <c r="CG2" t="n">
-        <v>330.0799255371094</v>
+        <v>385.7288818359375</v>
       </c>
       <c r="CH2" t="n">
-        <v>329.5235595703125</v>
+        <v>390.0632934570312</v>
       </c>
       <c r="CI2" t="n">
-        <v>330.52587890625</v>
+        <v>395.0433654785156</v>
       </c>
       <c r="CJ2" t="n">
-        <v>331.2597045898438</v>
+        <v>398.50830078125</v>
       </c>
       <c r="CK2" t="n">
-        <v>330.2139892578125</v>
+        <v>402.0178527832031</v>
       </c>
       <c r="CL2" t="n">
-        <v>329.3158569335938</v>
+        <v>404.9297790527344</v>
       </c>
       <c r="CM2" t="n">
-        <v>329.83349609375</v>
+        <v>407.887939453125</v>
       </c>
       <c r="CN2" t="n">
-        <v>328.7140502929688</v>
+        <v>411.2557983398438</v>
       </c>
       <c r="CO2" t="n">
-        <v>328.9678344726562</v>
+        <v>412.4282531738281</v>
       </c>
       <c r="CP2" t="n">
-        <v>329.43212890625</v>
+        <v>413.654541015625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>328.84228515625</v>
+        <v>414.7999267578125</v>
       </c>
       <c r="CR2" t="n">
-        <v>327.0031433105469</v>
+        <v>415.5317687988281</v>
       </c>
       <c r="CS2" t="n">
-        <v>327.4105224609375</v>
+        <v>415.7259826660156</v>
       </c>
       <c r="CT2" t="n">
-        <v>325.4620361328125</v>
+        <v>415.5771179199219</v>
       </c>
       <c r="CU2" t="n">
-        <v>325.7923889160156</v>
+        <v>415.4333190917969</v>
       </c>
       <c r="CV2" t="n">
-        <v>323.5167846679688</v>
+        <v>414.3005981445312</v>
       </c>
       <c r="CW2" t="n">
-        <v>325.3096923828125</v>
+        <v>412.9667358398438</v>
       </c>
       <c r="CX2" t="n">
-        <v>324.1646118164062</v>
+        <v>409.0899047851562</v>
       </c>
       <c r="CY2" t="n">
-        <v>320.5240173339844</v>
+        <v>405.34423828125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>316.7308959960938</v>
+        <v>397.2052612304688</v>
       </c>
       <c r="DA2" t="n">
-        <v>315.2020263671875</v>
+        <v>394.3805236816406</v>
       </c>
       <c r="DB2" t="n">
-        <v>313.9569396972656</v>
+        <v>392.1242065429688</v>
       </c>
       <c r="DC2" t="n">
-        <v>314.4313659667969</v>
+        <v>388.69140625</v>
       </c>
       <c r="DD2" t="n">
-        <v>315.2888793945312</v>
+        <v>384.6011352539062</v>
       </c>
       <c r="DE2" t="n">
-        <v>316.3145751953125</v>
+        <v>378.1820068359375</v>
       </c>
       <c r="DF2" t="n">
-        <v>316.0774536132812</v>
+        <v>374.15625</v>
       </c>
       <c r="DG2" t="n">
-        <v>315.32763671875</v>
+        <v>373.2604675292969</v>
       </c>
       <c r="DH2" t="n">
-        <v>315.2104187011719</v>
+        <v>371.2230834960938</v>
       </c>
       <c r="DI2" t="n">
-        <v>315.7767639160156</v>
+        <v>370.4400634765625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>315.9141540527344</v>
+        <v>369.7327270507812</v>
       </c>
       <c r="DK2" t="n">
-        <v>317.1793212890625</v>
+        <v>368.4618530273438</v>
       </c>
       <c r="DL2" t="n">
-        <v>318.9249572753906</v>
+        <v>367.59033203125</v>
       </c>
       <c r="DM2" t="n">
-        <v>321.1673583984375</v>
+        <v>366.5236206054688</v>
       </c>
       <c r="DN2" t="n">
-        <v>322.75390625</v>
+        <v>364.6409606933594</v>
       </c>
       <c r="DO2" t="n">
-        <v>327.2081909179688</v>
+        <v>361.7811584472656</v>
       </c>
       <c r="DP2" t="n">
-        <v>328.2371826171875</v>
+        <v>358.9385986328125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>329.1655883789062</v>
+        <v>355.7313842773438</v>
       </c>
       <c r="DR2" t="n">
-        <v>330.4577941894531</v>
+        <v>354.9981689453125</v>
       </c>
       <c r="DS2" t="n">
-        <v>331.9605102539062</v>
+        <v>354.80029296875</v>
       </c>
       <c r="DT2" t="n">
-        <v>336.6695556640625</v>
+        <v>354.5859375</v>
       </c>
       <c r="DU2" t="n">
-        <v>338.798828125</v>
+        <v>354.3515319824219</v>
       </c>
       <c r="DV2" t="n">
-        <v>341.5435791015625</v>
+        <v>354.4263000488281</v>
       </c>
       <c r="DW2" t="n">
-        <v>343.8717346191406</v>
+        <v>357.9314575195312</v>
       </c>
       <c r="DX2" t="n">
-        <v>347.2710571289062</v>
+        <v>361.826416015625</v>
       </c>
       <c r="DY2" t="n">
-        <v>348.9458923339844</v>
+        <v>365.6632995605469</v>
       </c>
       <c r="DZ2" t="n">
-        <v>351.6256408691406</v>
+        <v>371.3071899414062</v>
       </c>
       <c r="EA2" t="n">
-        <v>352.5975952148438</v>
+        <v>374.7855834960938</v>
       </c>
       <c r="EB2" t="n">
-        <v>352.8582153320312</v>
+        <v>386.6666259765625</v>
       </c>
       <c r="EC2" t="n">
-        <v>352.2964172363281</v>
+        <v>394.0526733398438</v>
       </c>
       <c r="ED2" t="n">
-        <v>352.7656860351562</v>
+        <v>400.1322021484375</v>
       </c>
       <c r="EE2" t="n">
-        <v>351.4114074707031</v>
+        <v>412.4464111328125</v>
       </c>
       <c r="EF2" t="n">
-        <v>348.2301025390625</v>
+        <v>428.9304809570312</v>
       </c>
       <c r="EG2" t="n">
-        <v>343.7431640625</v>
+        <v>443.2651977539062</v>
       </c>
       <c r="EH2" t="n">
-        <v>343.0187377929688</v>
+        <v>448.529541015625</v>
       </c>
       <c r="EI2" t="n">
-        <v>342.5484008789062</v>
+        <v>458.4981689453125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>340.9803771972656</v>
+        <v>461.4065856933594</v>
       </c>
       <c r="EK2" t="n">
-        <v>341.7100524902344</v>
+        <v>465.4337768554688</v>
       </c>
       <c r="EL2" t="n">
-        <v>340.5390625</v>
+        <v>468.0703125</v>
       </c>
       <c r="EM2" t="n">
-        <v>337.9866943359375</v>
+        <v>474.6275634765625</v>
       </c>
       <c r="EN2" t="n">
-        <v>336.9677734375</v>
+        <v>478.1389770507812</v>
       </c>
       <c r="EO2" t="n">
-        <v>334.8590393066406</v>
+        <v>481.0392456054688</v>
       </c>
       <c r="EP2" t="n">
-        <v>333.5873413085938</v>
+        <v>482.6109008789062</v>
       </c>
       <c r="EQ2" t="n">
-        <v>331.6351623535156</v>
+        <v>489.6396484375</v>
       </c>
       <c r="ER2" t="n">
-        <v>330.3922119140625</v>
+        <v>489.8406372070312</v>
       </c>
       <c r="ES2" t="n">
-        <v>329.5441284179688</v>
+        <v>487.6272277832031</v>
       </c>
       <c r="ET2" t="n">
-        <v>329.5348510742188</v>
+        <v>488.8956909179688</v>
       </c>
       <c r="EU2" t="n">
-        <v>329.5369873046875</v>
+        <v>491.3596801757812</v>
       </c>
       <c r="EV2" t="n">
-        <v>330.0510864257812</v>
+        <v>491.1550903320312</v>
       </c>
       <c r="EW2" t="n">
-        <v>331.7359008789062</v>
+        <v>488.275634765625</v>
       </c>
       <c r="EX2" t="n">
-        <v>332.7763061523438</v>
+        <v>486.6572265625</v>
       </c>
       <c r="EY2" t="n">
-        <v>330.6860961914062</v>
+        <v>484.5818481445312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>329.8486938476562</v>
+        <v>482.4116516113281</v>
       </c>
       <c r="FA2" t="n">
-        <v>329.8168334960938</v>
+        <v>479.627685546875</v>
       </c>
       <c r="FB2" t="n">
-        <v>329.8685913085938</v>
+        <v>478.971923828125</v>
       </c>
       <c r="FC2" t="n">
-        <v>329.3197021484375</v>
+        <v>477.925048828125</v>
       </c>
       <c r="FD2" t="n">
-        <v>329.3253784179688</v>
+        <v>475.9957885742188</v>
       </c>
       <c r="FE2" t="n">
-        <v>329.2427978515625</v>
+        <v>474.9191589355469</v>
       </c>
       <c r="FF2" t="n">
-        <v>328.9587097167969</v>
+        <v>473.4338989257812</v>
       </c>
       <c r="FG2" t="n">
-        <v>331.2283325195312</v>
+        <v>470.3024291992188</v>
       </c>
       <c r="FH2" t="n">
-        <v>331.5223999023438</v>
+        <v>468.3837585449219</v>
       </c>
       <c r="FI2" t="n">
-        <v>331.80224609375</v>
+        <v>467.3509521484375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>331.7509765625</v>
+        <v>466.6200561523438</v>
       </c>
       <c r="FK2" t="n">
-        <v>329.6926879882812</v>
+        <v>465.1462097167969</v>
       </c>
       <c r="FL2" t="n">
-        <v>327.2361450195312</v>
+        <v>463.8357849121094</v>
       </c>
       <c r="FM2" t="n">
-        <v>325.9923706054688</v>
+        <v>460.48779296875</v>
       </c>
       <c r="FN2" t="n">
-        <v>324.0972595214844</v>
+        <v>458.9000854492188</v>
       </c>
       <c r="FO2" t="n">
-        <v>326.728271484375</v>
+        <v>457.3399047851562</v>
       </c>
       <c r="FP2" t="n">
-        <v>325.8984680175781</v>
+        <v>454.2396545410156</v>
       </c>
       <c r="FQ2" t="n">
-        <v>324.7021789550781</v>
+        <v>450.2776489257812</v>
       </c>
       <c r="FR2" t="n">
-        <v>324.055908203125</v>
+        <v>448.847900390625</v>
       </c>
       <c r="FS2" t="n">
-        <v>323.7601928710938</v>
+        <v>446.218994140625</v>
       </c>
       <c r="FT2" t="n">
-        <v>321.8934326171875</v>
+        <v>442.4571228027344</v>
       </c>
       <c r="FU2" t="n">
-        <v>320.4824523925781</v>
+        <v>440.1659545898438</v>
       </c>
       <c r="FV2" t="n">
-        <v>319.1164245605469</v>
+        <v>434.2910766601562</v>
       </c>
       <c r="FW2" t="n">
-        <v>319.3941650390625</v>
+        <v>432.07666015625</v>
       </c>
       <c r="FX2" t="n">
-        <v>319.4781799316406</v>
+        <v>431.6588745117188</v>
       </c>
       <c r="FY2" t="n">
-        <v>319.0104370117188</v>
+        <v>431.1497802734375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>318.3822021484375</v>
+        <v>427.8643798828125</v>
       </c>
       <c r="GA2" t="n">
-        <v>318.7718200683594</v>
+        <v>425.8196411132812</v>
       </c>
       <c r="GB2" t="n">
-        <v>317.8031005859375</v>
+        <v>420.2355346679688</v>
       </c>
       <c r="GC2" t="n">
-        <v>316.7852172851562</v>
+        <v>419.3914184570312</v>
       </c>
       <c r="GD2" t="n">
-        <v>317.0713195800781</v>
+        <v>418.4991760253906</v>
       </c>
       <c r="GE2" t="n">
-        <v>318.3096313476562</v>
+        <v>418.361572265625</v>
       </c>
       <c r="GF2" t="n">
-        <v>319.3743896484375</v>
+        <v>417.1481018066406</v>
       </c>
       <c r="GG2" t="n">
-        <v>319.0025939941406</v>
+        <v>415.5509033203125</v>
       </c>
       <c r="GH2" t="n">
-        <v>318.5966186523438</v>
+        <v>411.8116455078125</v>
       </c>
       <c r="GI2" t="n">
-        <v>317.6257934570312</v>
+        <v>407.766357421875</v>
       </c>
       <c r="GJ2" t="n">
-        <v>319.191162109375</v>
+        <v>404.9777221679688</v>
       </c>
       <c r="GK2" t="n">
-        <v>318.65087890625</v>
+        <v>402.5686340332031</v>
       </c>
       <c r="GL2" t="n">
-        <v>319.6373291015625</v>
+        <v>397.7424621582031</v>
       </c>
       <c r="GM2" t="n">
-        <v>320.4598388671875</v>
+        <v>393.7584838867188</v>
       </c>
       <c r="GN2" t="n">
-        <v>321.9683837890625</v>
+        <v>391.3475036621094</v>
       </c>
       <c r="GO2" t="n">
-        <v>319.4069213867188</v>
+        <v>388.0202026367188</v>
       </c>
       <c r="GP2" t="n">
-        <v>320.4143676757812</v>
+        <v>383.8681640625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>320.4477233886719</v>
+        <v>377.6618957519531</v>
       </c>
       <c r="GR2" t="n">
-        <v>320.5416259765625</v>
+        <v>373.7511596679688</v>
       </c>
       <c r="GS2" t="n">
-        <v>320.3441772460938</v>
+        <v>371.313232421875</v>
       </c>
       <c r="GT2" t="n">
-        <v>320.3302612304688</v>
+        <v>369.1119995117188</v>
       </c>
       <c r="GU2" t="n">
-        <v>318.8055419921875</v>
+        <v>364.1130065917969</v>
       </c>
       <c r="GV2" t="n">
-        <v>316.2738342285156</v>
+        <v>361.7698974609375</v>
       </c>
       <c r="GW2" t="n">
-        <v>315.7284240722656</v>
+        <v>360.9631958007812</v>
       </c>
       <c r="GX2" t="n">
-        <v>315.7946166992188</v>
+        <v>361.4656372070312</v>
       </c>
       <c r="GY2" t="n">
-        <v>315.4643859863281</v>
+        <v>361.0107116699219</v>
       </c>
       <c r="GZ2" t="n">
-        <v>316.2346801757812</v>
+        <v>359.2619323730469</v>
       </c>
       <c r="HA2" t="n">
-        <v>316.90869140625</v>
+        <v>358.1710205078125</v>
       </c>
       <c r="HB2" t="n">
-        <v>315.7142028808594</v>
+        <v>358.1213989257812</v>
       </c>
       <c r="HC2" t="n">
-        <v>316.0536804199219</v>
+        <v>358.0682678222656</v>
       </c>
       <c r="HD2" t="n">
-        <v>316.6221008300781</v>
+        <v>358.1709594726562</v>
       </c>
       <c r="HE2" t="n">
-        <v>316.5954895019531</v>
+        <v>355.5933227539062</v>
       </c>
       <c r="HF2" t="n">
-        <v>316.6781311035156</v>
+        <v>353.549072265625</v>
       </c>
       <c r="HG2" t="n">
-        <v>317.2162170410156</v>
+        <v>354.6770629882812</v>
       </c>
       <c r="HH2" t="n">
-        <v>316.5781860351562</v>
+        <v>358.3123779296875</v>
       </c>
       <c r="HI2" t="n">
-        <v>317.0287170410156</v>
+        <v>360.7732849121094</v>
       </c>
       <c r="HJ2" t="n">
-        <v>317.4070129394531</v>
+        <v>366.4300537109375</v>
       </c>
       <c r="HK2" t="n">
-        <v>316.64453125</v>
+        <v>369.3369140625</v>
       </c>
       <c r="HL2" t="n">
-        <v>313.4625854492188</v>
+        <v>375.8880004882812</v>
       </c>
       <c r="HM2" t="n">
-        <v>309.4464111328125</v>
+        <v>382.9435424804688</v>
       </c>
       <c r="HN2" t="n">
-        <v>301.9730834960938</v>
+        <v>393.0212097167969</v>
       </c>
       <c r="HO2" t="n">
-        <v>298.2146911621094</v>
+        <v>406.5014953613281</v>
       </c>
       <c r="HP2" t="n">
-        <v>297.3408813476562</v>
+        <v>416.7537841796875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>301.0079345703125</v>
+        <v>420.2404174804688</v>
       </c>
       <c r="HR2" t="n">
-        <v>305.9580688476562</v>
+        <v>428.0332946777344</v>
       </c>
       <c r="HS2" t="n">
-        <v>306.2480773925781</v>
+        <v>433.0587158203125</v>
       </c>
       <c r="HT2" t="n">
-        <v>300.5357360839844</v>
+        <v>437.0830993652344</v>
       </c>
       <c r="HU2" t="n">
-        <v>298.3344116210938</v>
+        <v>440.4950561523438</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>441.4417114257812</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>441.2818603515625</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>441.5115661621094</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>441.6031494140625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>441.8754577636719</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>441.2070007324219</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>440.7156982421875</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>440.984619140625</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>440.3225708007812</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>438.038818359375</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>435.8463134765625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>431.5499877929688</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>426.9340515136719</v>
+      </c>
+      <c r="II2" t="n">
+        <v>423.2913513183594</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>416.5760803222656</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>404.1668701171875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>399.8702697753906</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>391.88720703125</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>383.8477172851562</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>377.1310119628906</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>374.5257568359375</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>370.5326538085938</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>368.4705200195312</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>368.2255249023438</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>366.8360900878906</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>366.84375</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>366.6082458496094</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>366.5164184570312</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>366.1176147460938</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>366.2164611816406</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>366.4978637695312</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>368.3541564941406</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>371.0700073242188</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>372.06591796875</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>375.0330200195312</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>379.6202392578125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>383.72216796875</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>390.3966674804688</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>395.3129272460938</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>400.8126831054688</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>405.2283325195312</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>410.0447082519531</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>416.6584777832031</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>418.353271484375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>420.322021484375</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>422.5226440429688</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>425.385498046875</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>427.1428833007812</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>428.5401000976562</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>430.2796020507812</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>432.4264526367188</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>433.2381591796875</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>433.3634643554688</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>433.6138305664062</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>433.9315185546875</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>434.1412963867188</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>434.1956176757812</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>433.9662475585938</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>433.7333984375</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>431.9596862792969</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>429.7822570800781</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>429.8831481933594</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>429.683349609375</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>427.9959716796875</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>427.7337036132812</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>427.4955749511719</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>427.1269226074219</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>426.8810729980469</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>426.7172241210938</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>426.5443725585938</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>426.5936889648438</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>426.6340942382812</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>427.0953369140625</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>427.0401000976562</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>427.3211059570312</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>428.8486938476562</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>431.0870056152344</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>432.1939697265625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>432.4332275390625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>432.5900268554688</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>432.6388549804688</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>433.247314453125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>434.2112426757812</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>436.0496215820312</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>436.7921752929688</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>437.3672790527344</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>437.7904968261719</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>439.4372253417969</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>441.5069580078125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>445.5275268554688</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>447.0312805175781</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>453.4042358398438</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>458.1202697753906</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>467.1482543945312</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>470.9108276367188</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>477.4383239746094</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>480.4008178710938</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>481.4631652832031</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>490.6666564941406</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>511.164306640625</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>522.1582641601562</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>530.707763671875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>548.8656005859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>560.7265014648438</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>567.5816040039062</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>563.4146118164062</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>561.446533203125</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>558.1993408203125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>545.058837890625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>523.0096435546875</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>496.8876647949219</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>471.5113525390625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>438.0411987304688</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>418.2427368164062</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>413.3920593261719</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>407.6357421875</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>412.1669921875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>416.5643005371094</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>419.8328247070312</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>427.9530029296875</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>431.1635131835938</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>450.60888671875</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>451.7095336914062</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>455.2626342773438</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>458.3147888183594</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>455.6181335449219</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>427.4735107421875</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>411.8396606445312</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>434.8992614746094</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>430.7373657226562</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>370.6410217285156</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>367.7087707519531</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>362.2106323242188</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>394.3685913085938</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>408.933837890625</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>406.9538879394531</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>430.7017211914062</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>424.9322509765625</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>418.1271362304688</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>397.8768310546875</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>311.8633117675781</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>415.8923950195312</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>427.413818359375</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>404.0252685546875</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>389.5523376464844</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>419.7857055664062</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>386.5408935546875</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>422.6839599609375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>428.2349548339844</v>
+        <v>379.0131225585938</v>
       </c>
       <c r="B3" t="n">
-        <v>413.1413269042969</v>
+        <v>374.5147705078125</v>
       </c>
       <c r="C3" t="n">
-        <v>407.2763671875</v>
+        <v>375.1861877441406</v>
       </c>
       <c r="D3" t="n">
-        <v>399.8219604492188</v>
+        <v>374.4818725585938</v>
       </c>
       <c r="E3" t="n">
-        <v>412.0059814453125</v>
+        <v>374.3673095703125</v>
       </c>
       <c r="F3" t="n">
-        <v>410.213134765625</v>
+        <v>374.0268249511719</v>
       </c>
       <c r="G3" t="n">
-        <v>415.3980407714844</v>
+        <v>373.3218078613281</v>
       </c>
       <c r="H3" t="n">
-        <v>427.7261657714844</v>
+        <v>372.1603393554688</v>
       </c>
       <c r="I3" t="n">
-        <v>395.9560241699219</v>
+        <v>369.5032653808594</v>
       </c>
       <c r="J3" t="n">
-        <v>425.017822265625</v>
+        <v>367.8215637207031</v>
       </c>
       <c r="K3" t="n">
-        <v>423.712158203125</v>
+        <v>364.7831420898438</v>
       </c>
       <c r="L3" t="n">
-        <v>410.5055541992188</v>
+        <v>363.6959228515625</v>
       </c>
       <c r="M3" t="n">
-        <v>422.4899597167969</v>
+        <v>368.5926818847656</v>
       </c>
       <c r="N3" t="n">
-        <v>422.7309875488281</v>
+        <v>360.0262451171875</v>
       </c>
       <c r="O3" t="n">
-        <v>376.2273864746094</v>
+        <v>361.8570861816406</v>
       </c>
       <c r="P3" t="n">
-        <v>325.7704467773438</v>
+        <v>357.2820739746094</v>
       </c>
       <c r="Q3" t="n">
-        <v>320.2123413085938</v>
+        <v>355.3917236328125</v>
       </c>
       <c r="R3" t="n">
-        <v>316.1745300292969</v>
+        <v>355.1265258789062</v>
       </c>
       <c r="S3" t="n">
-        <v>316.7745666503906</v>
+        <v>355.5631408691406</v>
       </c>
       <c r="T3" t="n">
-        <v>317.3818664550781</v>
+        <v>353.1037292480469</v>
       </c>
       <c r="U3" t="n">
-        <v>317.1207580566406</v>
+        <v>351.1405944824219</v>
       </c>
       <c r="V3" t="n">
-        <v>317.7199401855469</v>
+        <v>351.7726135253906</v>
       </c>
       <c r="W3" t="n">
-        <v>320.8659973144531</v>
+        <v>352.1714172363281</v>
       </c>
       <c r="X3" t="n">
-        <v>320.6831359863281</v>
+        <v>352.4588623046875</v>
       </c>
       <c r="Y3" t="n">
-        <v>319.7052307128906</v>
+        <v>360.8163452148438</v>
       </c>
       <c r="Z3" t="n">
-        <v>317.6324462890625</v>
+        <v>367.1541137695312</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.1127624511719</v>
+        <v>368.0916137695312</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.2089233398438</v>
+        <v>366.8795776367188</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.2610473632812</v>
+        <v>365.7223205566406</v>
       </c>
       <c r="AD3" t="n">
-        <v>309.6505432128906</v>
+        <v>364.5628662109375</v>
       </c>
       <c r="AE3" t="n">
-        <v>308.1415405273438</v>
+        <v>364.8978576660156</v>
       </c>
       <c r="AF3" t="n">
-        <v>306.7651672363281</v>
+        <v>362.8026733398438</v>
       </c>
       <c r="AG3" t="n">
-        <v>304.5431518554688</v>
+        <v>362.1090393066406</v>
       </c>
       <c r="AH3" t="n">
-        <v>301.4542236328125</v>
+        <v>354.6437377929688</v>
       </c>
       <c r="AI3" t="n">
-        <v>299.0106506347656</v>
+        <v>354.1910400390625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>300.0389404296875</v>
+        <v>351.8404541015625</v>
       </c>
       <c r="AK3" t="n">
-        <v>300.6132507324219</v>
+        <v>353.7869262695312</v>
       </c>
       <c r="AL3" t="n">
-        <v>300.908935546875</v>
+        <v>356.2246704101562</v>
       </c>
       <c r="AM3" t="n">
-        <v>304.9563598632812</v>
+        <v>362.3069458007812</v>
       </c>
       <c r="AN3" t="n">
-        <v>305.1871032714844</v>
+        <v>362.7618713378906</v>
       </c>
       <c r="AO3" t="n">
-        <v>305.0821838378906</v>
+        <v>363.52978515625</v>
       </c>
       <c r="AP3" t="n">
-        <v>304.2945251464844</v>
+        <v>364.4901123046875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>302.4917907714844</v>
+        <v>365.4307556152344</v>
       </c>
       <c r="AR3" t="n">
-        <v>301.3802490234375</v>
+        <v>365.7433471679688</v>
       </c>
       <c r="AS3" t="n">
-        <v>300.569091796875</v>
+        <v>365.6291809082031</v>
       </c>
       <c r="AT3" t="n">
-        <v>299.6776123046875</v>
+        <v>365.5248413085938</v>
       </c>
       <c r="AU3" t="n">
-        <v>298.5535583496094</v>
+        <v>364.8671875</v>
       </c>
       <c r="AV3" t="n">
-        <v>296.4836730957031</v>
+        <v>363.8892517089844</v>
       </c>
       <c r="AW3" t="n">
-        <v>293.2095031738281</v>
+        <v>362.5890502929688</v>
       </c>
       <c r="AX3" t="n">
-        <v>290.5215148925781</v>
+        <v>362.9424743652344</v>
       </c>
       <c r="AY3" t="n">
-        <v>289.5942077636719</v>
+        <v>363.8092651367188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>289.0871276855469</v>
+        <v>364.7613525390625</v>
       </c>
       <c r="BA3" t="n">
-        <v>290.1727294921875</v>
+        <v>366.3016662597656</v>
       </c>
       <c r="BB3" t="n">
-        <v>292.2682800292969</v>
+        <v>367.4466247558594</v>
       </c>
       <c r="BC3" t="n">
-        <v>293.6351013183594</v>
+        <v>367.5125732421875</v>
       </c>
       <c r="BD3" t="n">
-        <v>293.4928894042969</v>
+        <v>367.4956970214844</v>
       </c>
       <c r="BE3" t="n">
-        <v>293.4311828613281</v>
+        <v>366.6710510253906</v>
       </c>
       <c r="BF3" t="n">
-        <v>292.8747863769531</v>
+        <v>365.8636169433594</v>
       </c>
       <c r="BG3" t="n">
-        <v>292.520263671875</v>
+        <v>363.4995727539062</v>
       </c>
       <c r="BH3" t="n">
-        <v>291.1178894042969</v>
+        <v>361.0033569335938</v>
       </c>
       <c r="BI3" t="n">
-        <v>290.0258178710938</v>
+        <v>358.9989624023438</v>
       </c>
       <c r="BJ3" t="n">
-        <v>289.0957641601562</v>
+        <v>359.2681274414062</v>
       </c>
       <c r="BK3" t="n">
-        <v>289.0367736816406</v>
+        <v>359.7113342285156</v>
       </c>
       <c r="BL3" t="n">
-        <v>289.1945190429688</v>
+        <v>360.3699340820312</v>
       </c>
       <c r="BM3" t="n">
-        <v>290.0983276367188</v>
+        <v>361.7760925292969</v>
       </c>
       <c r="BN3" t="n">
-        <v>291.3338623046875</v>
+        <v>363.1116638183594</v>
       </c>
       <c r="BO3" t="n">
-        <v>284.9642639160156</v>
+        <v>364.1217346191406</v>
       </c>
       <c r="BP3" t="n">
-        <v>286.2477111816406</v>
+        <v>364.3944091796875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>279.2940979003906</v>
+        <v>363.7599792480469</v>
       </c>
       <c r="BR3" t="n">
-        <v>281.4987487792969</v>
+        <v>362.8878784179688</v>
       </c>
       <c r="BS3" t="n">
-        <v>281.8552856445312</v>
+        <v>361.6159057617188</v>
       </c>
       <c r="BT3" t="n">
-        <v>282.1821899414062</v>
+        <v>360.0850219726562</v>
       </c>
       <c r="BU3" t="n">
-        <v>283.0659790039062</v>
+        <v>360.2156677246094</v>
       </c>
       <c r="BV3" t="n">
-        <v>281.4913635253906</v>
+        <v>360.3704528808594</v>
       </c>
       <c r="BW3" t="n">
-        <v>281.6742858886719</v>
+        <v>360.5625305175781</v>
       </c>
       <c r="BX3" t="n">
-        <v>282.9983215332031</v>
+        <v>360.8375854492188</v>
       </c>
       <c r="BY3" t="n">
-        <v>282.1108703613281</v>
+        <v>360.9480590820312</v>
       </c>
       <c r="BZ3" t="n">
-        <v>282.4485168457031</v>
+        <v>361.2414245605469</v>
       </c>
       <c r="CA3" t="n">
-        <v>283.6847229003906</v>
+        <v>361.6601257324219</v>
       </c>
       <c r="CB3" t="n">
-        <v>284.2444763183594</v>
+        <v>361.6893005371094</v>
       </c>
       <c r="CC3" t="n">
-        <v>282.673095703125</v>
+        <v>361.1242370605469</v>
       </c>
       <c r="CD3" t="n">
-        <v>281.1224975585938</v>
+        <v>360.8893432617188</v>
       </c>
       <c r="CE3" t="n">
-        <v>278.5856323242188</v>
+        <v>360.862060546875</v>
       </c>
       <c r="CF3" t="n">
-        <v>280.4923095703125</v>
+        <v>361.064697265625</v>
       </c>
       <c r="CG3" t="n">
-        <v>279.872802734375</v>
+        <v>361.5892028808594</v>
       </c>
       <c r="CH3" t="n">
-        <v>280.8291015625</v>
+        <v>361.8382263183594</v>
       </c>
       <c r="CI3" t="n">
-        <v>279.4293518066406</v>
+        <v>361.9311218261719</v>
       </c>
       <c r="CJ3" t="n">
-        <v>277.1606750488281</v>
+        <v>362.6759338378906</v>
       </c>
       <c r="CK3" t="n">
-        <v>279.2483215332031</v>
+        <v>362.8956298828125</v>
       </c>
       <c r="CL3" t="n">
-        <v>280.7527465820312</v>
+        <v>362.9579772949219</v>
       </c>
       <c r="CM3" t="n">
-        <v>280.2481079101562</v>
+        <v>362.8469848632812</v>
       </c>
       <c r="CN3" t="n">
-        <v>282.5443115234375</v>
+        <v>363.3587646484375</v>
       </c>
       <c r="CO3" t="n">
-        <v>282.0151977539062</v>
+        <v>363.5271606445312</v>
       </c>
       <c r="CP3" t="n">
-        <v>281.7790832519531</v>
+        <v>363.8619689941406</v>
       </c>
       <c r="CQ3" t="n">
-        <v>280.885498046875</v>
+        <v>364.1039733886719</v>
       </c>
       <c r="CR3" t="n">
-        <v>282.8174743652344</v>
+        <v>364.08154296875</v>
       </c>
       <c r="CS3" t="n">
-        <v>280.7045593261719</v>
+        <v>364.3072204589844</v>
       </c>
       <c r="CT3" t="n">
-        <v>282.7447204589844</v>
+        <v>364.5289001464844</v>
       </c>
       <c r="CU3" t="n">
-        <v>281.3821716308594</v>
+        <v>364.7647094726562</v>
       </c>
       <c r="CV3" t="n">
-        <v>286.7507019042969</v>
+        <v>364.6158752441406</v>
       </c>
       <c r="CW3" t="n">
-        <v>282.6213073730469</v>
+        <v>364.3995971679688</v>
       </c>
       <c r="CX3" t="n">
-        <v>278.0299072265625</v>
+        <v>363.8118896484375</v>
       </c>
       <c r="CY3" t="n">
-        <v>271.6413269042969</v>
+        <v>363.2194213867188</v>
       </c>
       <c r="CZ3" t="n">
-        <v>272.5662841796875</v>
+        <v>363.1726379394531</v>
       </c>
       <c r="DA3" t="n">
-        <v>272.4960021972656</v>
+        <v>363.0472717285156</v>
       </c>
       <c r="DB3" t="n">
-        <v>272.5513610839844</v>
+        <v>363.0540771484375</v>
       </c>
       <c r="DC3" t="n">
-        <v>272.5473937988281</v>
+        <v>363.2665100097656</v>
       </c>
       <c r="DD3" t="n">
-        <v>272.5542297363281</v>
+        <v>362.8066711425781</v>
       </c>
       <c r="DE3" t="n">
-        <v>272.6337890625</v>
+        <v>362.5898742675781</v>
       </c>
       <c r="DF3" t="n">
-        <v>273.3966979980469</v>
+        <v>361.7644958496094</v>
       </c>
       <c r="DG3" t="n">
-        <v>272.5308837890625</v>
+        <v>361.3464965820312</v>
       </c>
       <c r="DH3" t="n">
-        <v>272.693603515625</v>
+        <v>360.9498901367188</v>
       </c>
       <c r="DI3" t="n">
-        <v>275.4339904785156</v>
+        <v>360.7185974121094</v>
       </c>
       <c r="DJ3" t="n">
-        <v>274.6073913574219</v>
+        <v>360.1684265136719</v>
       </c>
       <c r="DK3" t="n">
-        <v>274.2518005371094</v>
+        <v>360.151611328125</v>
       </c>
       <c r="DL3" t="n">
-        <v>274.6129760742188</v>
+        <v>360.1210021972656</v>
       </c>
       <c r="DM3" t="n">
-        <v>274.920166015625</v>
+        <v>360.3876647949219</v>
       </c>
       <c r="DN3" t="n">
-        <v>277.909423828125</v>
+        <v>360.5687561035156</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.7039794921875</v>
+        <v>361.0475158691406</v>
       </c>
       <c r="DP3" t="n">
-        <v>284.2396545410156</v>
+        <v>361.4524536132812</v>
       </c>
       <c r="DQ3" t="n">
-        <v>281.3782653808594</v>
+        <v>361.6772155761719</v>
       </c>
       <c r="DR3" t="n">
-        <v>278.3488159179688</v>
+        <v>361.5543823242188</v>
       </c>
       <c r="DS3" t="n">
-        <v>278.8590698242188</v>
+        <v>361.4505004882812</v>
       </c>
       <c r="DT3" t="n">
-        <v>274.3216247558594</v>
+        <v>361.3041381835938</v>
       </c>
       <c r="DU3" t="n">
-        <v>276.7410583496094</v>
+        <v>361.6354675292969</v>
       </c>
       <c r="DV3" t="n">
-        <v>275.6708068847656</v>
+        <v>361.8958740234375</v>
       </c>
       <c r="DW3" t="n">
-        <v>276.1903381347656</v>
+        <v>363.3041076660156</v>
       </c>
       <c r="DX3" t="n">
-        <v>271.5206604003906</v>
+        <v>363.4235534667969</v>
       </c>
       <c r="DY3" t="n">
-        <v>273.1165771484375</v>
+        <v>363.92431640625</v>
       </c>
       <c r="DZ3" t="n">
-        <v>270.3499145507812</v>
+        <v>365.9173889160156</v>
       </c>
       <c r="EA3" t="n">
-        <v>269.5132141113281</v>
+        <v>368.2024536132812</v>
       </c>
       <c r="EB3" t="n">
-        <v>270.576171875</v>
+        <v>368.0008850097656</v>
       </c>
       <c r="EC3" t="n">
-        <v>271.4902648925781</v>
+        <v>368.7569580078125</v>
       </c>
       <c r="ED3" t="n">
-        <v>272.2576599121094</v>
+        <v>369.1475830078125</v>
       </c>
       <c r="EE3" t="n">
-        <v>273.5038452148438</v>
+        <v>370.7020263671875</v>
       </c>
       <c r="EF3" t="n">
-        <v>273.0868530273438</v>
+        <v>373.4557800292969</v>
       </c>
       <c r="EG3" t="n">
-        <v>278.767822265625</v>
+        <v>372.6021118164062</v>
       </c>
       <c r="EH3" t="n">
-        <v>280.4078674316406</v>
+        <v>372.6239318847656</v>
       </c>
       <c r="EI3" t="n">
-        <v>280.2289428710938</v>
+        <v>369.7389221191406</v>
       </c>
       <c r="EJ3" t="n">
-        <v>286.2026062011719</v>
+        <v>368.8824157714844</v>
       </c>
       <c r="EK3" t="n">
-        <v>283.720703125</v>
+        <v>365.5862731933594</v>
       </c>
       <c r="EL3" t="n">
-        <v>285.251953125</v>
+        <v>364.1705017089844</v>
       </c>
       <c r="EM3" t="n">
-        <v>284.4789733886719</v>
+        <v>361.5973205566406</v>
       </c>
       <c r="EN3" t="n">
-        <v>281.3091735839844</v>
+        <v>358.5753173828125</v>
       </c>
       <c r="EO3" t="n">
-        <v>276.4486694335938</v>
+        <v>363.4967041015625</v>
       </c>
       <c r="EP3" t="n">
-        <v>273.2141418457031</v>
+        <v>363.2980346679688</v>
       </c>
       <c r="EQ3" t="n">
-        <v>273.0493774414062</v>
+        <v>365.6961364746094</v>
       </c>
       <c r="ER3" t="n">
-        <v>274.4269409179688</v>
+        <v>366.3214111328125</v>
       </c>
       <c r="ES3" t="n">
-        <v>275.1063537597656</v>
+        <v>371.77001953125</v>
       </c>
       <c r="ET3" t="n">
-        <v>273.5450744628906</v>
+        <v>377.0513000488281</v>
       </c>
       <c r="EU3" t="n">
-        <v>273.1114196777344</v>
+        <v>375.128662109375</v>
       </c>
       <c r="EV3" t="n">
-        <v>274.4993896484375</v>
+        <v>371.9481506347656</v>
       </c>
       <c r="EW3" t="n">
-        <v>281.4075317382812</v>
+        <v>366.3063659667969</v>
       </c>
       <c r="EX3" t="n">
-        <v>282.5991821289062</v>
+        <v>363.9944152832031</v>
       </c>
       <c r="EY3" t="n">
-        <v>286.6246337890625</v>
+        <v>362.2671508789062</v>
       </c>
       <c r="EZ3" t="n">
-        <v>287.3319091796875</v>
+        <v>360.2811584472656</v>
       </c>
       <c r="FA3" t="n">
-        <v>285.0438232421875</v>
+        <v>358.0666198730469</v>
       </c>
       <c r="FB3" t="n">
-        <v>283.7436828613281</v>
+        <v>362.5538940429688</v>
       </c>
       <c r="FC3" t="n">
-        <v>279.3036804199219</v>
+        <v>369.2530212402344</v>
       </c>
       <c r="FD3" t="n">
-        <v>276.7825317382812</v>
+        <v>370.1207580566406</v>
       </c>
       <c r="FE3" t="n">
-        <v>275.6081848144531</v>
+        <v>369.277587890625</v>
       </c>
       <c r="FF3" t="n">
-        <v>277.0505065917969</v>
+        <v>368.4308776855469</v>
       </c>
       <c r="FG3" t="n">
-        <v>272.7886962890625</v>
+        <v>368.280029296875</v>
       </c>
       <c r="FH3" t="n">
-        <v>273.4261169433594</v>
+        <v>369.6827087402344</v>
       </c>
       <c r="FI3" t="n">
-        <v>274.03466796875</v>
+        <v>368.8535461425781</v>
       </c>
       <c r="FJ3" t="n">
-        <v>274.4266052246094</v>
+        <v>367.1493530273438</v>
       </c>
       <c r="FK3" t="n">
-        <v>278.7450561523438</v>
+        <v>364.0890197753906</v>
       </c>
       <c r="FL3" t="n">
-        <v>281.6742858886719</v>
+        <v>363.1399230957031</v>
       </c>
       <c r="FM3" t="n">
-        <v>282.9565734863281</v>
+        <v>360.8107299804688</v>
       </c>
       <c r="FN3" t="n">
-        <v>290.1214904785156</v>
+        <v>359.8057250976562</v>
       </c>
       <c r="FO3" t="n">
-        <v>288.9524230957031</v>
+        <v>358.6876220703125</v>
       </c>
       <c r="FP3" t="n">
-        <v>286.9427185058594</v>
+        <v>357.6651916503906</v>
       </c>
       <c r="FQ3" t="n">
-        <v>291.4977111816406</v>
+        <v>360.8922424316406</v>
       </c>
       <c r="FR3" t="n">
-        <v>285.2615051269531</v>
+        <v>360.8936157226562</v>
       </c>
       <c r="FS3" t="n">
-        <v>277.6568298339844</v>
+        <v>362.0360717773438</v>
       </c>
       <c r="FT3" t="n">
-        <v>277.33447265625</v>
+        <v>360.2250061035156</v>
       </c>
       <c r="FU3" t="n">
-        <v>273.9760437011719</v>
+        <v>359.7740173339844</v>
       </c>
       <c r="FV3" t="n">
-        <v>278.491455078125</v>
+        <v>361.1012573242188</v>
       </c>
       <c r="FW3" t="n">
-        <v>278.2682189941406</v>
+        <v>361.1740112304688</v>
       </c>
       <c r="FX3" t="n">
-        <v>275.9749145507812</v>
+        <v>361.419189453125</v>
       </c>
       <c r="FY3" t="n">
-        <v>275.5482177734375</v>
+        <v>361.89599609375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>278.391845703125</v>
+        <v>362.1668090820312</v>
       </c>
       <c r="GA3" t="n">
-        <v>277.78076171875</v>
+        <v>361.6412353515625</v>
       </c>
       <c r="GB3" t="n">
-        <v>280.0147094726562</v>
+        <v>359.7573547363281</v>
       </c>
       <c r="GC3" t="n">
-        <v>284.5941772460938</v>
+        <v>357.6942443847656</v>
       </c>
       <c r="GD3" t="n">
-        <v>284.2359619140625</v>
+        <v>357.4429016113281</v>
       </c>
       <c r="GE3" t="n">
-        <v>285.765380859375</v>
+        <v>357.3094482421875</v>
       </c>
       <c r="GF3" t="n">
-        <v>283.837890625</v>
+        <v>357.0420227050781</v>
       </c>
       <c r="GG3" t="n">
-        <v>285.5625610351562</v>
+        <v>356.7881469726562</v>
       </c>
       <c r="GH3" t="n">
-        <v>286.4958801269531</v>
+        <v>356.3141479492188</v>
       </c>
       <c r="GI3" t="n">
-        <v>288.8630065917969</v>
+        <v>356.0264892578125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>288.8421630859375</v>
+        <v>356.7462768554688</v>
       </c>
       <c r="GK3" t="n">
-        <v>290.1138916015625</v>
+        <v>357.4803161621094</v>
       </c>
       <c r="GL3" t="n">
-        <v>289.477783203125</v>
+        <v>357.4000549316406</v>
       </c>
       <c r="GM3" t="n">
-        <v>289.1017150878906</v>
+        <v>357.5916137695312</v>
       </c>
       <c r="GN3" t="n">
-        <v>286.0371398925781</v>
+        <v>357.6455993652344</v>
       </c>
       <c r="GO3" t="n">
-        <v>288.7180786132812</v>
+        <v>358.0041198730469</v>
       </c>
       <c r="GP3" t="n">
-        <v>288.0281066894531</v>
+        <v>355.9286499023438</v>
       </c>
       <c r="GQ3" t="n">
-        <v>288.9472045898438</v>
+        <v>354.23095703125</v>
       </c>
       <c r="GR3" t="n">
-        <v>290.0455627441406</v>
+        <v>350.9661254882812</v>
       </c>
       <c r="GS3" t="n">
-        <v>291.2366638183594</v>
+        <v>347.8440246582031</v>
       </c>
       <c r="GT3" t="n">
-        <v>291.8317565917969</v>
+        <v>346.8587341308594</v>
       </c>
       <c r="GU3" t="n">
-        <v>293.00146484375</v>
+        <v>342.9280395507812</v>
       </c>
       <c r="GV3" t="n">
-        <v>298.0415954589844</v>
+        <v>343.364990234375</v>
       </c>
       <c r="GW3" t="n">
-        <v>300.4781494140625</v>
+        <v>343.7560424804688</v>
       </c>
       <c r="GX3" t="n">
-        <v>302.0640258789062</v>
+        <v>341.5117492675781</v>
       </c>
       <c r="GY3" t="n">
-        <v>303.66943359375</v>
+        <v>341.0768432617188</v>
       </c>
       <c r="GZ3" t="n">
-        <v>303.5936279296875</v>
+        <v>341.2677307128906</v>
       </c>
       <c r="HA3" t="n">
-        <v>300.3690185546875</v>
+        <v>340.9645690917969</v>
       </c>
       <c r="HB3" t="n">
-        <v>303.2471008300781</v>
+        <v>340.1924743652344</v>
       </c>
       <c r="HC3" t="n">
-        <v>305.03173828125</v>
+        <v>339.4251403808594</v>
       </c>
       <c r="HD3" t="n">
-        <v>309.4998168945312</v>
+        <v>336.9465942382812</v>
       </c>
       <c r="HE3" t="n">
-        <v>312.345458984375</v>
+        <v>337.4269104003906</v>
       </c>
       <c r="HF3" t="n">
-        <v>319.7702941894531</v>
+        <v>337.6840209960938</v>
       </c>
       <c r="HG3" t="n">
-        <v>319.9546813964844</v>
+        <v>338.97509765625</v>
       </c>
       <c r="HH3" t="n">
-        <v>322.7585144042969</v>
+        <v>342.2061462402344</v>
       </c>
       <c r="HI3" t="n">
-        <v>322.6688537597656</v>
+        <v>342.5205688476562</v>
       </c>
       <c r="HJ3" t="n">
-        <v>326.3634948730469</v>
+        <v>344.2453002929688</v>
       </c>
       <c r="HK3" t="n">
-        <v>331.3294677734375</v>
+        <v>344.2446899414062</v>
       </c>
       <c r="HL3" t="n">
-        <v>335.6919860839844</v>
+        <v>348.9690856933594</v>
       </c>
       <c r="HM3" t="n">
-        <v>341.8152160644531</v>
+        <v>353.649658203125</v>
       </c>
       <c r="HN3" t="n">
-        <v>345.6067810058594</v>
+        <v>356.7749328613281</v>
       </c>
       <c r="HO3" t="n">
-        <v>348.8512573242188</v>
+        <v>358.2157897949219</v>
       </c>
       <c r="HP3" t="n">
-        <v>353.8746337890625</v>
+        <v>358.2322998046875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>356.3987426757812</v>
+        <v>357.4742126464844</v>
       </c>
       <c r="HR3" t="n">
-        <v>362.0157775878906</v>
+        <v>356.8899841308594</v>
       </c>
       <c r="HS3" t="n">
-        <v>378.4649963378906</v>
+        <v>356.0291748046875</v>
       </c>
       <c r="HT3" t="n">
-        <v>403.5933837890625</v>
+        <v>358.9674682617188</v>
       </c>
       <c r="HU3" t="n">
-        <v>433.7658996582031</v>
+        <v>358.828369140625</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>358.8865966796875</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>359.7802734375</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>360.0231018066406</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>360.1213684082031</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>360.3578491210938</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>361.3468933105469</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>362.1781311035156</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>362.3068237304688</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>361.8133239746094</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>360.9870910644531</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>360.8391723632812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>360.6064758300781</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>359.1961975097656</v>
+      </c>
+      <c r="II3" t="n">
+        <v>359.3905639648438</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>359.4430236816406</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>358.6234130859375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>358.8093566894531</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>359.308349609375</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>359.0414428710938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>357.7202453613281</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>356.4984741210938</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>354.0079956054688</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>354.6154479980469</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>354.3909606933594</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>352.9717102050781</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>351.9365539550781</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>352.3441162109375</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>352.391845703125</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>351.6796264648438</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>351.8923950195312</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>351.9955749511719</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>352.1669311523438</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>351.8750610351562</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>353.7969055175781</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>352.8653564453125</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>353.7926940917969</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>353.8607177734375</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>354.9347229003906</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>357.2059326171875</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>357.5588989257812</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>357.8970642089844</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>357.578369140625</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>357.5820922851562</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>358.1972961425781</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>358.2093811035156</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>358.5805358886719</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>358.9772338867188</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>359.4754028320312</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>359.316650390625</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>358.6353759765625</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>358.3349304199219</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>358.4937744140625</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>358.4427490234375</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>358.2801818847656</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>358.363037109375</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>358.7835693359375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>359.1146850585938</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>360.0054321289062</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>361.4847412109375</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>360.8116760253906</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>357.9979553222656</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>356.5862121582031</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>356.5050659179688</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>358.21337890625</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>357.7336730957031</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>357.5629272460938</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>357.3628845214844</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>357.2500305175781</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>357.2696533203125</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>357.4046325683594</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>357.2429809570312</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>357.0516357421875</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>356.5449523925781</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>356.7820129394531</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>356.6166076660156</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>356.1507873535156</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>355.2597351074219</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>355.9176940917969</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>356.6893005371094</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>356.844482421875</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>357.1658020019531</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>358.2085571289062</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>359.4732360839844</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>360.5494995117188</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>361.5759887695312</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>362.1015014648438</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>362.08544921875</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>363.3834228515625</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>365.2108154296875</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>370.1543579101562</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>373.5771789550781</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>378.4292602539062</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>378.8176574707031</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>377.4062194824219</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>384.0006103515625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>382.9419555664062</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>378.4474487304688</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>376.1023864746094</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>372.723876953125</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>369.6308288574219</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>375.3907775878906</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>376.5819702148438</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>368.6447448730469</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>366.4045104980469</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>371.0614929199219</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>362.884033203125</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>365.6146240234375</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>367.5110473632812</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>382.590576171875</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>416.64208984375</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>423.6414794921875</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>420.9653015136719</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>389.49072265625</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>371.8539733886719</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>367.3199157714844</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>386.3728332519531</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>401.3880615234375</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>412.0847473144531</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>444.305908203125</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>480.8355407714844</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>506.8579711914062</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>521.2466430664062</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>514.9694213867188</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>511.2774353027344</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>514.6495971679688</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>516.9658203125</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>527.7520751953125</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>576.2249755859375</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>596.6707153320312</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>579.7205810546875</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>601.6651000976562</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>622.3302612304688</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>622.0900268554688</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>618.22119140625</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>616.0060424804688</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>616.62158203125</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>578.2733154296875</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>590.52099609375</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>600.406982421875</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>642.3262329101562</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>657.8792724609375</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>660.2163696289062</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>645.54638671875</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>656.1014404296875</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>648.4786376953125</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>613.17236328125</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>649.709228515625</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>632.2027587890625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>798.3926391601562</v>
+        <v>1036.720458984375</v>
       </c>
       <c r="B4" t="n">
-        <v>825.85107421875</v>
+        <v>1031.981201171875</v>
       </c>
       <c r="C4" t="n">
-        <v>851.1813354492188</v>
+        <v>1032.684692382812</v>
       </c>
       <c r="D4" t="n">
-        <v>882.2257690429688</v>
+        <v>1033.931762695312</v>
       </c>
       <c r="E4" t="n">
-        <v>916.3443603515625</v>
+        <v>1035.186889648438</v>
       </c>
       <c r="F4" t="n">
-        <v>890.7291870117188</v>
+        <v>1036.445434570312</v>
       </c>
       <c r="G4" t="n">
-        <v>967.1566772460938</v>
+        <v>1038.571655273438</v>
       </c>
       <c r="H4" t="n">
-        <v>894.656982421875</v>
+        <v>1041.964111328125</v>
       </c>
       <c r="I4" t="n">
-        <v>1004.089782714844</v>
+        <v>1050.42822265625</v>
       </c>
       <c r="J4" t="n">
-        <v>960.330322265625</v>
+        <v>1066.005981445312</v>
       </c>
       <c r="K4" t="n">
-        <v>993.64990234375</v>
+        <v>1087.499145507812</v>
       </c>
       <c r="L4" t="n">
-        <v>1085.1484375</v>
+        <v>1102.264404296875</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.183227539062</v>
+        <v>1151.168090820312</v>
       </c>
       <c r="N4" t="n">
-        <v>1100.846923828125</v>
+        <v>1163.662353515625</v>
       </c>
       <c r="O4" t="n">
-        <v>1298.570556640625</v>
+        <v>1195.780029296875</v>
       </c>
       <c r="P4" t="n">
-        <v>1339.744262695312</v>
+        <v>1201.003295898438</v>
       </c>
       <c r="Q4" t="n">
-        <v>1373.258911132812</v>
+        <v>1207.670288085938</v>
       </c>
       <c r="R4" t="n">
-        <v>1412.232788085938</v>
+        <v>1214.28076171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1445.353881835938</v>
+        <v>1221.683715820312</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.689331054688</v>
+        <v>1238.483276367188</v>
       </c>
       <c r="U4" t="n">
-        <v>1517.322998046875</v>
+        <v>1245.395629882812</v>
       </c>
       <c r="V4" t="n">
-        <v>1556.731323242188</v>
+        <v>1251.612915039062</v>
       </c>
       <c r="W4" t="n">
-        <v>1591.599853515625</v>
+        <v>1259.476928710938</v>
       </c>
       <c r="X4" t="n">
-        <v>1623.75341796875</v>
+        <v>1263.152587890625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1671.22412109375</v>
+        <v>1253.120849609375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1705.6298828125</v>
+        <v>1245.683471679688</v>
       </c>
       <c r="AA4" t="n">
-        <v>1754.00146484375</v>
+        <v>1246.91650390625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1804.547119140625</v>
+        <v>1260.50244140625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1853.350341796875</v>
+        <v>1275.986450195312</v>
       </c>
       <c r="AD4" t="n">
-        <v>1897.996704101562</v>
+        <v>1291.733520507812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1940.243896484375</v>
+        <v>1296.904296875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1968.501342773438</v>
+        <v>1307.98828125</v>
       </c>
       <c r="AG4" t="n">
-        <v>2012.626831054688</v>
+        <v>1315.254272460938</v>
       </c>
       <c r="AH4" t="n">
-        <v>2053.08056640625</v>
+        <v>1346.175659179688</v>
       </c>
       <c r="AI4" t="n">
-        <v>2087.61767578125</v>
+        <v>1341.54248046875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2120.204833984375</v>
+        <v>1349.865356445312</v>
       </c>
       <c r="AK4" t="n">
-        <v>2152.25830078125</v>
+        <v>1344.953979492188</v>
       </c>
       <c r="AL4" t="n">
-        <v>2187.889892578125</v>
+        <v>1341.73974609375</v>
       </c>
       <c r="AM4" t="n">
-        <v>2236.979736328125</v>
+        <v>1333.540771484375</v>
       </c>
       <c r="AN4" t="n">
-        <v>2287.362548828125</v>
+        <v>1330.139770507812</v>
       </c>
       <c r="AO4" t="n">
-        <v>2345.020751953125</v>
+        <v>1325.489135742188</v>
       </c>
       <c r="AP4" t="n">
-        <v>2385.163330078125</v>
+        <v>1318.81689453125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2450.151611328125</v>
+        <v>1309.328247070312</v>
       </c>
       <c r="AR4" t="n">
-        <v>2498.359375</v>
+        <v>1305.972778320312</v>
       </c>
       <c r="AS4" t="n">
-        <v>2526.87060546875</v>
+        <v>1301.951049804688</v>
       </c>
       <c r="AT4" t="n">
-        <v>2556.954345703125</v>
+        <v>1296.108154296875</v>
       </c>
       <c r="AU4" t="n">
-        <v>2592.30419921875</v>
+        <v>1295.143188476562</v>
       </c>
       <c r="AV4" t="n">
-        <v>2615.261962890625</v>
+        <v>1292.896240234375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2650.784912109375</v>
+        <v>1288.399291992188</v>
       </c>
       <c r="AX4" t="n">
-        <v>2728.609130859375</v>
+        <v>1280.841064453125</v>
       </c>
       <c r="AY4" t="n">
-        <v>2758.38427734375</v>
+        <v>1269.365112304688</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2785.463623046875</v>
+        <v>1257.984619140625</v>
       </c>
       <c r="BA4" t="n">
-        <v>2810.7373046875</v>
+        <v>1245.461059570312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2838.47412109375</v>
+        <v>1240.5224609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2842.056884765625</v>
+        <v>1236.93994140625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2858.27490234375</v>
+        <v>1232.615112304688</v>
       </c>
       <c r="BE4" t="n">
-        <v>2884.540771484375</v>
+        <v>1230.717651367188</v>
       </c>
       <c r="BF4" t="n">
-        <v>2937.205322265625</v>
+        <v>1230.062255859375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2940.713134765625</v>
+        <v>1230.552490234375</v>
       </c>
       <c r="BH4" t="n">
-        <v>2976.81201171875</v>
+        <v>1230.52001953125</v>
       </c>
       <c r="BI4" t="n">
-        <v>3034.930908203125</v>
+        <v>1229.905639648438</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3097.93408203125</v>
+        <v>1228.924438476562</v>
       </c>
       <c r="BK4" t="n">
-        <v>3145.916259765625</v>
+        <v>1226.124633789062</v>
       </c>
       <c r="BL4" t="n">
-        <v>3172.444091796875</v>
+        <v>1217.032470703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3199.92578125</v>
+        <v>1200.06787109375</v>
       </c>
       <c r="BN4" t="n">
-        <v>3218.343505859375</v>
+        <v>1190.719482421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>3216.636962890625</v>
+        <v>1180.203491210938</v>
       </c>
       <c r="BP4" t="n">
-        <v>3236.279296875</v>
+        <v>1177.246704101562</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3249.839111328125</v>
+        <v>1175.52197265625</v>
       </c>
       <c r="BR4" t="n">
-        <v>3271.37060546875</v>
+        <v>1174.405029296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>3281.161376953125</v>
+        <v>1172.502319335938</v>
       </c>
       <c r="BT4" t="n">
-        <v>3293.20751953125</v>
+        <v>1169.89306640625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3317.819091796875</v>
+        <v>1166.673828125</v>
       </c>
       <c r="BV4" t="n">
-        <v>3329.541748046875</v>
+        <v>1162.989135742188</v>
       </c>
       <c r="BW4" t="n">
-        <v>3342.092041015625</v>
+        <v>1159.368286132812</v>
       </c>
       <c r="BX4" t="n">
-        <v>3377.8447265625</v>
+        <v>1154.612915039062</v>
       </c>
       <c r="BY4" t="n">
-        <v>3402.920654296875</v>
+        <v>1144.891357421875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3399.19287109375</v>
+        <v>1140.101684570312</v>
       </c>
       <c r="CA4" t="n">
-        <v>3417.7763671875</v>
+        <v>1135.7666015625</v>
       </c>
       <c r="CB4" t="n">
-        <v>3496.523681640625</v>
+        <v>1131.503784179688</v>
       </c>
       <c r="CC4" t="n">
-        <v>3501.51513671875</v>
+        <v>1129.934326171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>3539.9267578125</v>
+        <v>1126.842041015625</v>
       </c>
       <c r="CE4" t="n">
-        <v>3543.344970703125</v>
+        <v>1121.858154296875</v>
       </c>
       <c r="CF4" t="n">
-        <v>3582.26513671875</v>
+        <v>1119.771606445312</v>
       </c>
       <c r="CG4" t="n">
-        <v>3579.019775390625</v>
+        <v>1116.713134765625</v>
       </c>
       <c r="CH4" t="n">
-        <v>3626.80322265625</v>
+        <v>1113.99072265625</v>
       </c>
       <c r="CI4" t="n">
-        <v>3636.0966796875</v>
+        <v>1112.833374023438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3640.68505859375</v>
+        <v>1111.877197265625</v>
       </c>
       <c r="CK4" t="n">
-        <v>3649.656005859375</v>
+        <v>1111.11669921875</v>
       </c>
       <c r="CL4" t="n">
-        <v>3663.309326171875</v>
+        <v>1110.182006835938</v>
       </c>
       <c r="CM4" t="n">
-        <v>3667.703125</v>
+        <v>1109.559692382812</v>
       </c>
       <c r="CN4" t="n">
-        <v>3676.949951171875</v>
+        <v>1107.173583984375</v>
       </c>
       <c r="CO4" t="n">
-        <v>3691.380615234375</v>
+        <v>1105.997924804688</v>
       </c>
       <c r="CP4" t="n">
-        <v>3672.006103515625</v>
+        <v>1104.655883789062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3677.3466796875</v>
+        <v>1103.372680664062</v>
       </c>
       <c r="CR4" t="n">
-        <v>3686.8212890625</v>
+        <v>1103.151489257812</v>
       </c>
       <c r="CS4" t="n">
-        <v>3697.17724609375</v>
+        <v>1100.72314453125</v>
       </c>
       <c r="CT4" t="n">
-        <v>3702.95947265625</v>
+        <v>1097.928588867188</v>
       </c>
       <c r="CU4" t="n">
-        <v>3696.45849609375</v>
+        <v>1096.607788085938</v>
       </c>
       <c r="CV4" t="n">
-        <v>3708.718017578125</v>
+        <v>1096.076171875</v>
       </c>
       <c r="CW4" t="n">
-        <v>3705.6875</v>
+        <v>1097.946533203125</v>
       </c>
       <c r="CX4" t="n">
-        <v>3701.27978515625</v>
+        <v>1107.401000976562</v>
       </c>
       <c r="CY4" t="n">
-        <v>3692.05224609375</v>
+        <v>1115.560424804688</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3709.973388671875</v>
+        <v>1123.936889648438</v>
       </c>
       <c r="DA4" t="n">
-        <v>3709.367431640625</v>
+        <v>1127.469604492188</v>
       </c>
       <c r="DB4" t="n">
-        <v>3708.737548828125</v>
+        <v>1129.384643554688</v>
       </c>
       <c r="DC4" t="n">
-        <v>3709.03662109375</v>
+        <v>1130.036254882812</v>
       </c>
       <c r="DD4" t="n">
-        <v>3706.402587890625</v>
+        <v>1130.480224609375</v>
       </c>
       <c r="DE4" t="n">
-        <v>3696.374755859375</v>
+        <v>1130.453247070312</v>
       </c>
       <c r="DF4" t="n">
-        <v>3694.583740234375</v>
+        <v>1131.8984375</v>
       </c>
       <c r="DG4" t="n">
-        <v>3710.776123046875</v>
+        <v>1133.390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3718.51806640625</v>
+        <v>1138.537353515625</v>
       </c>
       <c r="DI4" t="n">
-        <v>3692.02734375</v>
+        <v>1143.959594726562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3693.645263671875</v>
+        <v>1151.2255859375</v>
       </c>
       <c r="DK4" t="n">
-        <v>3689.0380859375</v>
+        <v>1154.120849609375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3689.4130859375</v>
+        <v>1156.302124023438</v>
       </c>
       <c r="DM4" t="n">
-        <v>3688.168212890625</v>
+        <v>1157.532958984375</v>
       </c>
       <c r="DN4" t="n">
-        <v>3687.43505859375</v>
+        <v>1158.617553710938</v>
       </c>
       <c r="DO4" t="n">
-        <v>3659.180908203125</v>
+        <v>1158.6748046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>3646.170166015625</v>
+        <v>1157.953247070312</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3649.669189453125</v>
+        <v>1157.475463867188</v>
       </c>
       <c r="DR4" t="n">
-        <v>3641.988525390625</v>
+        <v>1157.717407226562</v>
       </c>
       <c r="DS4" t="n">
-        <v>3633.46875</v>
+        <v>1158.05029296875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3613.50732421875</v>
+        <v>1159.04638671875</v>
       </c>
       <c r="DU4" t="n">
-        <v>3610.71826171875</v>
+        <v>1162.743896484375</v>
       </c>
       <c r="DV4" t="n">
-        <v>3628.39453125</v>
+        <v>1166.608520507812</v>
       </c>
       <c r="DW4" t="n">
-        <v>3624.60009765625</v>
+        <v>1178.061157226562</v>
       </c>
       <c r="DX4" t="n">
-        <v>3625.416259765625</v>
+        <v>1183.245361328125</v>
       </c>
       <c r="DY4" t="n">
-        <v>3603.15869140625</v>
+        <v>1184.3193359375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3605.28564453125</v>
+        <v>1190.994262695312</v>
       </c>
       <c r="EA4" t="n">
-        <v>3598.22900390625</v>
+        <v>1195.545166015625</v>
       </c>
       <c r="EB4" t="n">
-        <v>3595.363525390625</v>
+        <v>1211.679809570312</v>
       </c>
       <c r="EC4" t="n">
-        <v>3600.609130859375</v>
+        <v>1218.472045898438</v>
       </c>
       <c r="ED4" t="n">
-        <v>3586.883056640625</v>
+        <v>1225.232666015625</v>
       </c>
       <c r="EE4" t="n">
-        <v>3556.83642578125</v>
+        <v>1237.169555664062</v>
       </c>
       <c r="EF4" t="n">
-        <v>3545.2470703125</v>
+        <v>1256.399169921875</v>
       </c>
       <c r="EG4" t="n">
-        <v>3549.100830078125</v>
+        <v>1288.660522460938</v>
       </c>
       <c r="EH4" t="n">
-        <v>3526.616943359375</v>
+        <v>1298.82080078125</v>
       </c>
       <c r="EI4" t="n">
-        <v>3513.1904296875</v>
+        <v>1320.86279296875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3464.274658203125</v>
+        <v>1335.03173828125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3453.4384765625</v>
+        <v>1362.85009765625</v>
       </c>
       <c r="EL4" t="n">
-        <v>3418.974609375</v>
+        <v>1371.146850585938</v>
       </c>
       <c r="EM4" t="n">
-        <v>3371.121826171875</v>
+        <v>1389.895629882812</v>
       </c>
       <c r="EN4" t="n">
-        <v>3394.16650390625</v>
+        <v>1401.359741210938</v>
       </c>
       <c r="EO4" t="n">
-        <v>3389.241455078125</v>
+        <v>1404.277221679688</v>
       </c>
       <c r="EP4" t="n">
-        <v>3330.454345703125</v>
+        <v>1410.976318359375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3358.74072265625</v>
+        <v>1443.707885742188</v>
       </c>
       <c r="ER4" t="n">
-        <v>3345.133544921875</v>
+        <v>1461.6005859375</v>
       </c>
       <c r="ES4" t="n">
-        <v>3338.3408203125</v>
+        <v>1496.371215820312</v>
       </c>
       <c r="ET4" t="n">
-        <v>3338.216552734375</v>
+        <v>1528.9521484375</v>
       </c>
       <c r="EU4" t="n">
-        <v>3338.45751953125</v>
+        <v>1548.145629882812</v>
       </c>
       <c r="EV4" t="n">
-        <v>3338.594970703125</v>
+        <v>1571.439453125</v>
       </c>
       <c r="EW4" t="n">
-        <v>3341.007568359375</v>
+        <v>1634.24658203125</v>
       </c>
       <c r="EX4" t="n">
-        <v>3356.9521484375</v>
+        <v>1676.01123046875</v>
       </c>
       <c r="EY4" t="n">
-        <v>3364.634033203125</v>
+        <v>1705.3271484375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3350.75244140625</v>
+        <v>1734.539306640625</v>
       </c>
       <c r="FA4" t="n">
-        <v>3377.8623046875</v>
+        <v>1769.47119140625</v>
       </c>
       <c r="FB4" t="n">
-        <v>3384.81494140625</v>
+        <v>1781.91552734375</v>
       </c>
       <c r="FC4" t="n">
-        <v>3446.601806640625</v>
+        <v>1817.627685546875</v>
       </c>
       <c r="FD4" t="n">
-        <v>3440.6005859375</v>
+        <v>1852.109741210938</v>
       </c>
       <c r="FE4" t="n">
-        <v>3450.392333984375</v>
+        <v>1874.910400390625</v>
       </c>
       <c r="FF4" t="n">
-        <v>3446.33740234375</v>
+        <v>1897.947875976562</v>
       </c>
       <c r="FG4" t="n">
-        <v>3436.534912109375</v>
+        <v>1935.408569335938</v>
       </c>
       <c r="FH4" t="n">
-        <v>3463.413818359375</v>
+        <v>1959.1142578125</v>
       </c>
       <c r="FI4" t="n">
-        <v>3430.34521484375</v>
+        <v>2003.078247070312</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3450.629150390625</v>
+        <v>2031.9521484375</v>
       </c>
       <c r="FK4" t="n">
-        <v>3463.4248046875</v>
+        <v>2077.70068359375</v>
       </c>
       <c r="FL4" t="n">
-        <v>3449.670166015625</v>
+        <v>2099.361572265625</v>
       </c>
       <c r="FM4" t="n">
-        <v>3442.592041015625</v>
+        <v>2140.860107421875</v>
       </c>
       <c r="FN4" t="n">
-        <v>3416.120849609375</v>
+        <v>2156.830322265625</v>
       </c>
       <c r="FO4" t="n">
-        <v>3407.863525390625</v>
+        <v>2178.9873046875</v>
       </c>
       <c r="FP4" t="n">
-        <v>3395.2275390625</v>
+        <v>2202.171142578125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3392.333984375</v>
+        <v>2227.528564453125</v>
       </c>
       <c r="FR4" t="n">
-        <v>3367.876708984375</v>
+        <v>2239.628173828125</v>
       </c>
       <c r="FS4" t="n">
-        <v>3382.6689453125</v>
+        <v>2261.8154296875</v>
       </c>
       <c r="FT4" t="n">
-        <v>3377.18408203125</v>
+        <v>2274.349365234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>3347.326171875</v>
+        <v>2274.225830078125</v>
       </c>
       <c r="FV4" t="n">
-        <v>3308.5263671875</v>
+        <v>2269.734375</v>
       </c>
       <c r="FW4" t="n">
-        <v>3302.049560546875</v>
+        <v>2263.606201171875</v>
       </c>
       <c r="FX4" t="n">
-        <v>3317.142822265625</v>
+        <v>2261.12060546875</v>
       </c>
       <c r="FY4" t="n">
-        <v>3304.954345703125</v>
+        <v>2259.1865234375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3282.086669921875</v>
+        <v>2259.804931640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>3278.57568359375</v>
+        <v>2261.651123046875</v>
       </c>
       <c r="GB4" t="n">
-        <v>3272.422607421875</v>
+        <v>2270.886474609375</v>
       </c>
       <c r="GC4" t="n">
-        <v>3272.232421875</v>
+        <v>2279.495849609375</v>
       </c>
       <c r="GD4" t="n">
-        <v>3261.772705078125</v>
+        <v>2288.2412109375</v>
       </c>
       <c r="GE4" t="n">
-        <v>3206.07958984375</v>
+        <v>2287.74853515625</v>
       </c>
       <c r="GF4" t="n">
-        <v>3190.126953125</v>
+        <v>2288.30419921875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3156.37255859375</v>
+        <v>2290.411376953125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3138.1162109375</v>
+        <v>2306.029296875</v>
       </c>
       <c r="GI4" t="n">
-        <v>3042.37451171875</v>
+        <v>2310.5419921875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2964.863525390625</v>
+        <v>2308.900146484375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2909.87109375</v>
+        <v>2305.391845703125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2881.87353515625</v>
+        <v>2300.88916015625</v>
       </c>
       <c r="GM4" t="n">
-        <v>2845.703369140625</v>
+        <v>2295.77880859375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2814.22802734375</v>
+        <v>2293.343505859375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2798.47314453125</v>
+        <v>2283.6015625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2742.3466796875</v>
+        <v>2283.646728515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2693.394775390625</v>
+        <v>2282.5927734375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2640.943359375</v>
+        <v>2279.716552734375</v>
       </c>
       <c r="GS4" t="n">
-        <v>2572.796630859375</v>
+        <v>2278.736572265625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2539.868896484375</v>
+        <v>2278.365966796875</v>
       </c>
       <c r="GU4" t="n">
-        <v>2485.429443359375</v>
+        <v>2276.12744140625</v>
       </c>
       <c r="GV4" t="n">
-        <v>2374.9296875</v>
+        <v>2269.407470703125</v>
       </c>
       <c r="GW4" t="n">
-        <v>2289.822509765625</v>
+        <v>2263.333740234375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2237.693359375</v>
+        <v>2261.571533203125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2159.10400390625</v>
+        <v>2257.50634765625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2100.6630859375</v>
+        <v>2257.244873046875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2055.207275390625</v>
+        <v>2257.65234375</v>
       </c>
       <c r="HB4" t="n">
-        <v>1983.055419921875</v>
+        <v>2257.462158203125</v>
       </c>
       <c r="HC4" t="n">
-        <v>1904.980224609375</v>
+        <v>2256.85888671875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1823.9892578125</v>
+        <v>2256.646484375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1792.107177734375</v>
+        <v>2256.99365234375</v>
       </c>
       <c r="HF4" t="n">
-        <v>1689.967041015625</v>
+        <v>2257.173095703125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1633.361083984375</v>
+        <v>2257.45751953125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1551.219116210938</v>
+        <v>2246.654052734375</v>
       </c>
       <c r="HI4" t="n">
-        <v>1490.89013671875</v>
+        <v>2248.883544921875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1427.837280273438</v>
+        <v>2248.90087890625</v>
       </c>
       <c r="HK4" t="n">
-        <v>1365.38037109375</v>
+        <v>2246.2470703125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1292.201171875</v>
+        <v>2211.302001953125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1213.798461914062</v>
+        <v>2176.155029296875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1110.146728515625</v>
+        <v>2166.687255859375</v>
       </c>
       <c r="HO4" t="n">
-        <v>1062.588989257812</v>
+        <v>2144.199462890625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1014.773742675781</v>
+        <v>2140.84423828125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>958.289306640625</v>
+        <v>2140.67333984375</v>
       </c>
       <c r="HR4" t="n">
-        <v>890.480224609375</v>
+        <v>2138.39501953125</v>
       </c>
       <c r="HS4" t="n">
-        <v>830.7092895507812</v>
+        <v>2139.1513671875</v>
       </c>
       <c r="HT4" t="n">
-        <v>757.64208984375</v>
+        <v>2133.431640625</v>
       </c>
       <c r="HU4" t="n">
-        <v>740.5650634765625</v>
+        <v>2125.196533203125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2121.4775390625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2122.763916015625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2122.0830078125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2122.039306640625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2122.0810546875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2122.99951171875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2123.6669921875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2123.4140625</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2123.845458984375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2123.3642578125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2120.22021484375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2121.569580078125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2124.302490234375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2124.38916015625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2127.10791015625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2145.473876953125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2147.5107421875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2147.336669921875</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2148.6064453125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2152.056884765625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2159.140380859375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2175.682373046875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2168.4169921875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2170.48681640625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2171.818603515625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2168.648681640625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2166.7216796875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2164.87451171875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2164.84912109375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2163.006591796875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2161.716796875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2156.791259765625</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2157.161376953125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2159.499755859375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2158.445556640625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2153.64404296875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2151.774658203125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2139.8857421875</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2135.53125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2131.89794921875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2129.058837890625</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2130.530517578125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2129.423583984375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2122.6591796875</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2116.143798828125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2110.794921875</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2107.445556640625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2105.317626953125</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2104.50244140625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2106.717041015625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2107.14111328125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2106.704833984375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2106.81884765625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2106.955810546875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2105.809814453125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2102.319091796875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2098.59814453125</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2092.48583984375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2081.7529296875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2073.255615234375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2077.9013671875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2076.809326171875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2076.934326171875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2078.29736328125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2079.28076171875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2081.872802734375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2086.852294921875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2090.53271484375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2090.904541015625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2091.267333984375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2091.046875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2090.790283203125</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2090.0576171875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2090.63525390625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2091.324951171875</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2097.7177734375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2113.832275390625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2122.025390625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2115.66552734375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2114.63427734375</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2114.528076171875</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2114.164306640625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2110.0986328125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2081.845703125</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2066.43359375</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2057.242431640625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2051.299560546875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2039.1533203125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2034.2939453125</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>1982.150024414062</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1939.285400390625</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1845.683837890625</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1768.060546875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1676.175170898438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1604.557373046875</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1552.092041015625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1474.604370117188</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1434.17529296875</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1353.562744140625</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1240.866821289062</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1173.369750976562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1098.175170898438</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>957.1502075195312</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>881.9258422851562</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>808.859619140625</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>758.7811279296875</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>730.1137084960938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>689.6776123046875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>660.0000610351562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>645.7340087890625</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>642.2078857421875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>642.7301025390625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>709.4105224609375</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>774.186279296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>802.0573120117188</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>832.2860107421875</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>844.423095703125</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>866.107177734375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>900.0667114257812</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>925.5476684570312</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>928.1265869140625</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>931.9443969726562</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>977.120849609375</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>989.7068481445312</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>986.3406982421875</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>986.5491943359375</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>959.5466918945312</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>816.9459838867188</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>675.0872802734375</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>640.6316528320312</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>679.0227661132812</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>710.8433837890625</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>658.0604858398438</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>651.2999877929688</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>649.2730712890625</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>636.8427124023438</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>631.5697631835938</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>600.818115234375</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>591.5369873046875</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>574.5831909179688</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>562.9328002929688</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>536.2555541992188</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>546.0623168945312</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>547.4937133789062</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>556.5123901367188</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>628.6170043945312</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>602.8994750976562</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>600.3536987304688</v>
       </c>
     </row>
   </sheetData>

--- a/left_hip_Data_Variable.xlsx
+++ b/left_hip_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>394.1000671386719</v>
+        <v>337.719482421875</v>
       </c>
       <c r="B2" t="n">
-        <v>398.3880004882812</v>
+        <v>339.5260009765625</v>
       </c>
       <c r="C2" t="n">
-        <v>401.2085266113281</v>
+        <v>340.5478515625</v>
       </c>
       <c r="D2" t="n">
-        <v>405.5587768554688</v>
+        <v>342.5155029296875</v>
       </c>
       <c r="E2" t="n">
-        <v>411.7179565429688</v>
+        <v>344.2613525390625</v>
       </c>
       <c r="F2" t="n">
-        <v>417.7596435546875</v>
+        <v>345.5680541992188</v>
       </c>
       <c r="G2" t="n">
-        <v>424.52490234375</v>
+        <v>346.6375427246094</v>
       </c>
       <c r="H2" t="n">
-        <v>432.0303955078125</v>
+        <v>348.4164733886719</v>
       </c>
       <c r="I2" t="n">
-        <v>439.4346618652344</v>
+        <v>349.5678405761719</v>
       </c>
       <c r="J2" t="n">
-        <v>444.1869812011719</v>
+        <v>351.4587707519531</v>
       </c>
       <c r="K2" t="n">
-        <v>448.5088500976562</v>
+        <v>352.7841186523438</v>
       </c>
       <c r="L2" t="n">
-        <v>451.1959228515625</v>
+        <v>353.9075012207031</v>
       </c>
       <c r="M2" t="n">
-        <v>469.1568603515625</v>
+        <v>356.9259033203125</v>
       </c>
       <c r="N2" t="n">
-        <v>468.432861328125</v>
+        <v>359.7676086425781</v>
       </c>
       <c r="O2" t="n">
-        <v>467.5248718261719</v>
+        <v>384.201904296875</v>
       </c>
       <c r="P2" t="n">
-        <v>465.1896667480469</v>
+        <v>383.5122375488281</v>
       </c>
       <c r="Q2" t="n">
-        <v>463.4547424316406</v>
+        <v>382.8481750488281</v>
       </c>
       <c r="R2" t="n">
-        <v>462.6326904296875</v>
+        <v>382.1576538085938</v>
       </c>
       <c r="S2" t="n">
-        <v>462.6812133789062</v>
+        <v>381.5582885742188</v>
       </c>
       <c r="T2" t="n">
-        <v>461.1864929199219</v>
+        <v>380.6535034179688</v>
       </c>
       <c r="U2" t="n">
-        <v>458.1555786132812</v>
+        <v>379.9389038085938</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0278930664062</v>
+        <v>379.0982666015625</v>
       </c>
       <c r="W2" t="n">
-        <v>447.181640625</v>
+        <v>378.28125</v>
       </c>
       <c r="X2" t="n">
-        <v>442.591796875</v>
+        <v>377.5523681640625</v>
       </c>
       <c r="Y2" t="n">
-        <v>436.6593017578125</v>
+        <v>376.6415100097656</v>
       </c>
       <c r="Z2" t="n">
-        <v>433.2500610351562</v>
+        <v>375.8009643554688</v>
       </c>
       <c r="AA2" t="n">
-        <v>430.3552551269531</v>
+        <v>374.6087341308594</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.4781494140625</v>
+        <v>373.5909423828125</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.7373352050781</v>
+        <v>372.7227478027344</v>
       </c>
       <c r="AD2" t="n">
-        <v>422.6392822265625</v>
+        <v>371.886474609375</v>
       </c>
       <c r="AE2" t="n">
-        <v>420.7934265136719</v>
+        <v>371.1398620605469</v>
       </c>
       <c r="AF2" t="n">
-        <v>419.457763671875</v>
+        <v>369.68701171875</v>
       </c>
       <c r="AG2" t="n">
-        <v>418.8420104980469</v>
+        <v>368.2779541015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>418.5175170898438</v>
+        <v>367.3177490234375</v>
       </c>
       <c r="AI2" t="n">
-        <v>417.0256958007812</v>
+        <v>366.5950927734375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>416.4369506835938</v>
+        <v>366.0879516601562</v>
       </c>
       <c r="AK2" t="n">
-        <v>415.3197631835938</v>
+        <v>365.7271118164062</v>
       </c>
       <c r="AL2" t="n">
-        <v>413.8166809082031</v>
+        <v>365.4886474609375</v>
       </c>
       <c r="AM2" t="n">
-        <v>411.767578125</v>
+        <v>365.5065612792969</v>
       </c>
       <c r="AN2" t="n">
-        <v>411.6962890625</v>
+        <v>365.4551696777344</v>
       </c>
       <c r="AO2" t="n">
-        <v>411.3318481445312</v>
+        <v>365.3817138671875</v>
       </c>
       <c r="AP2" t="n">
-        <v>410.7626953125</v>
+        <v>365.8408813476562</v>
       </c>
       <c r="AQ2" t="n">
-        <v>410.5291137695312</v>
+        <v>366.5838012695312</v>
       </c>
       <c r="AR2" t="n">
-        <v>410.5310668945312</v>
+        <v>367.4266967773438</v>
       </c>
       <c r="AS2" t="n">
-        <v>410.5703125</v>
+        <v>368.4884643554688</v>
       </c>
       <c r="AT2" t="n">
-        <v>410.6893310546875</v>
+        <v>369.0246276855469</v>
       </c>
       <c r="AU2" t="n">
-        <v>410.8258666992188</v>
+        <v>369.139404296875</v>
       </c>
       <c r="AV2" t="n">
-        <v>410.9872436523438</v>
+        <v>368.9933776855469</v>
       </c>
       <c r="AW2" t="n">
-        <v>411.3522338867188</v>
+        <v>368.7914428710938</v>
       </c>
       <c r="AX2" t="n">
-        <v>411.28515625</v>
+        <v>368.6762084960938</v>
       </c>
       <c r="AY2" t="n">
-        <v>410.2467651367188</v>
+        <v>367.8485717773438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>408.7869262695312</v>
+        <v>366.4000854492188</v>
       </c>
       <c r="BA2" t="n">
-        <v>408.1518249511719</v>
+        <v>364.7952880859375</v>
       </c>
       <c r="BB2" t="n">
-        <v>407.0271606445312</v>
+        <v>363.8969421386719</v>
       </c>
       <c r="BC2" t="n">
-        <v>405.4475708007812</v>
+        <v>363.3759765625</v>
       </c>
       <c r="BD2" t="n">
-        <v>403.4521789550781</v>
+        <v>363.0867919921875</v>
       </c>
       <c r="BE2" t="n">
-        <v>401.3524169921875</v>
+        <v>362.9570922851562</v>
       </c>
       <c r="BF2" t="n">
-        <v>398.4100036621094</v>
+        <v>362.938232421875</v>
       </c>
       <c r="BG2" t="n">
-        <v>396.595703125</v>
+        <v>362.94140625</v>
       </c>
       <c r="BH2" t="n">
-        <v>394.5136108398438</v>
+        <v>362.90380859375</v>
       </c>
       <c r="BI2" t="n">
-        <v>391.78125</v>
+        <v>362.7807006835938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>388.6552124023438</v>
+        <v>362.6044311523438</v>
       </c>
       <c r="BK2" t="n">
-        <v>384.9767456054688</v>
+        <v>362.4371948242188</v>
       </c>
       <c r="BL2" t="n">
-        <v>380.762451171875</v>
+        <v>362.4090576171875</v>
       </c>
       <c r="BM2" t="n">
-        <v>377.1680908203125</v>
+        <v>362.4859924316406</v>
       </c>
       <c r="BN2" t="n">
-        <v>372.9254455566406</v>
+        <v>362.6719970703125</v>
       </c>
       <c r="BO2" t="n">
-        <v>366.5709838867188</v>
+        <v>364.7490234375</v>
       </c>
       <c r="BP2" t="n">
-        <v>363.3747863769531</v>
+        <v>366.1856689453125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>361.010498046875</v>
+        <v>367.3456420898438</v>
       </c>
       <c r="BR2" t="n">
-        <v>358.736328125</v>
+        <v>368.0354614257812</v>
       </c>
       <c r="BS2" t="n">
-        <v>356.7779846191406</v>
+        <v>368.5269470214844</v>
       </c>
       <c r="BT2" t="n">
-        <v>355.5465393066406</v>
+        <v>368.9343872070312</v>
       </c>
       <c r="BU2" t="n">
-        <v>354.8046264648438</v>
+        <v>369.2261047363281</v>
       </c>
       <c r="BV2" t="n">
-        <v>354.5060729980469</v>
+        <v>369.3207397460938</v>
       </c>
       <c r="BW2" t="n">
-        <v>354.4208374023438</v>
+        <v>369.3960571289062</v>
       </c>
       <c r="BX2" t="n">
-        <v>354.5955200195312</v>
+        <v>369.450927734375</v>
       </c>
       <c r="BY2" t="n">
-        <v>355.8460083007812</v>
+        <v>369.4950866699219</v>
       </c>
       <c r="BZ2" t="n">
-        <v>357.4712524414062</v>
+        <v>369.524169921875</v>
       </c>
       <c r="CA2" t="n">
-        <v>360.1119384765625</v>
+        <v>369.533935546875</v>
       </c>
       <c r="CB2" t="n">
-        <v>363.2887268066406</v>
+        <v>369.5230712890625</v>
       </c>
       <c r="CC2" t="n">
-        <v>367.2879333496094</v>
+        <v>369.530029296875</v>
       </c>
       <c r="CD2" t="n">
-        <v>370.9581909179688</v>
+        <v>369.5364685058594</v>
       </c>
       <c r="CE2" t="n">
-        <v>377.6352233886719</v>
+        <v>369.551025390625</v>
       </c>
       <c r="CF2" t="n">
-        <v>381.738037109375</v>
+        <v>369.5726013183594</v>
       </c>
       <c r="CG2" t="n">
-        <v>385.7288818359375</v>
+        <v>369.5899658203125</v>
       </c>
       <c r="CH2" t="n">
-        <v>390.0632934570312</v>
+        <v>369.6127319335938</v>
       </c>
       <c r="CI2" t="n">
-        <v>395.0433654785156</v>
+        <v>369.705322265625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>398.50830078125</v>
+        <v>369.7640686035156</v>
       </c>
       <c r="CK2" t="n">
-        <v>402.0178527832031</v>
+        <v>369.8279418945312</v>
       </c>
       <c r="CL2" t="n">
-        <v>404.9297790527344</v>
+        <v>369.8867797851562</v>
       </c>
       <c r="CM2" t="n">
-        <v>407.887939453125</v>
+        <v>369.9093627929688</v>
       </c>
       <c r="CN2" t="n">
-        <v>411.2557983398438</v>
+        <v>369.9369812011719</v>
       </c>
       <c r="CO2" t="n">
-        <v>412.4282531738281</v>
+        <v>369.9325256347656</v>
       </c>
       <c r="CP2" t="n">
-        <v>413.654541015625</v>
+        <v>369.9238586425781</v>
       </c>
       <c r="CQ2" t="n">
-        <v>414.7999267578125</v>
+        <v>369.919677734375</v>
       </c>
       <c r="CR2" t="n">
-        <v>415.5317687988281</v>
+        <v>369.9244995117188</v>
       </c>
       <c r="CS2" t="n">
-        <v>415.7259826660156</v>
+        <v>369.9306640625</v>
       </c>
       <c r="CT2" t="n">
-        <v>415.5771179199219</v>
+        <v>369.9435119628906</v>
       </c>
       <c r="CU2" t="n">
-        <v>415.4333190917969</v>
+        <v>369.9613952636719</v>
       </c>
       <c r="CV2" t="n">
-        <v>414.3005981445312</v>
+        <v>369.9814147949219</v>
       </c>
       <c r="CW2" t="n">
-        <v>412.9667358398438</v>
+        <v>370.00390625</v>
       </c>
       <c r="CX2" t="n">
-        <v>409.0899047851562</v>
+        <v>370.0301513671875</v>
       </c>
       <c r="CY2" t="n">
-        <v>405.34423828125</v>
+        <v>370.1059265136719</v>
       </c>
       <c r="CZ2" t="n">
-        <v>397.2052612304688</v>
+        <v>370.1569213867188</v>
       </c>
       <c r="DA2" t="n">
-        <v>394.3805236816406</v>
+        <v>370.2069702148438</v>
       </c>
       <c r="DB2" t="n">
-        <v>392.1242065429688</v>
+        <v>370.2615356445312</v>
       </c>
       <c r="DC2" t="n">
-        <v>388.69140625</v>
+        <v>370.2445068359375</v>
       </c>
       <c r="DD2" t="n">
-        <v>384.6011352539062</v>
+        <v>370.1637573242188</v>
       </c>
       <c r="DE2" t="n">
-        <v>378.1820068359375</v>
+        <v>369.8647766113281</v>
       </c>
       <c r="DF2" t="n">
-        <v>374.15625</v>
+        <v>369.4083251953125</v>
       </c>
       <c r="DG2" t="n">
-        <v>373.2604675292969</v>
+        <v>368.8025512695312</v>
       </c>
       <c r="DH2" t="n">
-        <v>371.2230834960938</v>
+        <v>368.1302185058594</v>
       </c>
       <c r="DI2" t="n">
-        <v>370.4400634765625</v>
+        <v>367.2518310546875</v>
       </c>
       <c r="DJ2" t="n">
-        <v>369.7327270507812</v>
+        <v>366.7603149414062</v>
       </c>
       <c r="DK2" t="n">
-        <v>368.4618530273438</v>
+        <v>366.4707641601562</v>
       </c>
       <c r="DL2" t="n">
-        <v>367.59033203125</v>
+        <v>366.5548095703125</v>
       </c>
       <c r="DM2" t="n">
-        <v>366.5236206054688</v>
+        <v>366.6597900390625</v>
       </c>
       <c r="DN2" t="n">
-        <v>364.6409606933594</v>
+        <v>366.7774047851562</v>
       </c>
       <c r="DO2" t="n">
-        <v>361.7811584472656</v>
+        <v>366.2747192382812</v>
       </c>
       <c r="DP2" t="n">
-        <v>358.9385986328125</v>
+        <v>366.109375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>355.7313842773438</v>
+        <v>365.7501831054688</v>
       </c>
       <c r="DR2" t="n">
-        <v>354.9981689453125</v>
+        <v>365.5559692382812</v>
       </c>
       <c r="DS2" t="n">
-        <v>354.80029296875</v>
+        <v>365.3554992675781</v>
       </c>
       <c r="DT2" t="n">
-        <v>354.5859375</v>
+        <v>364.7463989257812</v>
       </c>
       <c r="DU2" t="n">
-        <v>354.3515319824219</v>
+        <v>364.5494995117188</v>
       </c>
       <c r="DV2" t="n">
-        <v>354.4263000488281</v>
+        <v>364.119384765625</v>
       </c>
       <c r="DW2" t="n">
-        <v>357.9314575195312</v>
+        <v>363.8828125</v>
       </c>
       <c r="DX2" t="n">
-        <v>361.826416015625</v>
+        <v>363.5670166015625</v>
       </c>
       <c r="DY2" t="n">
-        <v>365.6632995605469</v>
+        <v>363.1826782226562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>371.3071899414062</v>
+        <v>364.8930053710938</v>
       </c>
       <c r="EA2" t="n">
-        <v>374.7855834960938</v>
+        <v>366.2966918945312</v>
       </c>
       <c r="EB2" t="n">
-        <v>386.6666259765625</v>
+        <v>368.3533020019531</v>
       </c>
       <c r="EC2" t="n">
-        <v>394.0526733398438</v>
+        <v>368.61962890625</v>
       </c>
       <c r="ED2" t="n">
-        <v>400.1322021484375</v>
+        <v>368.7230834960938</v>
       </c>
       <c r="EE2" t="n">
-        <v>412.4464111328125</v>
+        <v>368.6552429199219</v>
       </c>
       <c r="EF2" t="n">
-        <v>428.9304809570312</v>
+        <v>368.3286743164062</v>
       </c>
       <c r="EG2" t="n">
-        <v>443.2651977539062</v>
+        <v>367.5591430664062</v>
       </c>
       <c r="EH2" t="n">
-        <v>448.529541015625</v>
+        <v>365.0558776855469</v>
       </c>
       <c r="EI2" t="n">
-        <v>458.4981689453125</v>
+        <v>364.5439453125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>461.4065856933594</v>
+        <v>364.589599609375</v>
       </c>
       <c r="EK2" t="n">
-        <v>465.4337768554688</v>
+        <v>365.4458312988281</v>
       </c>
       <c r="EL2" t="n">
-        <v>468.0703125</v>
+        <v>366.1241455078125</v>
       </c>
       <c r="EM2" t="n">
-        <v>474.6275634765625</v>
+        <v>366.3990783691406</v>
       </c>
       <c r="EN2" t="n">
-        <v>478.1389770507812</v>
+        <v>366.5942993164062</v>
       </c>
       <c r="EO2" t="n">
-        <v>481.0392456054688</v>
+        <v>365.8663635253906</v>
       </c>
       <c r="EP2" t="n">
-        <v>482.6109008789062</v>
+        <v>365.627685546875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>489.6396484375</v>
+        <v>365.244873046875</v>
       </c>
       <c r="ER2" t="n">
-        <v>489.8406372070312</v>
+        <v>363.7646484375</v>
       </c>
       <c r="ES2" t="n">
-        <v>487.6272277832031</v>
+        <v>362.6429443359375</v>
       </c>
       <c r="ET2" t="n">
-        <v>488.8956909179688</v>
+        <v>361.7648620605469</v>
       </c>
       <c r="EU2" t="n">
-        <v>491.3596801757812</v>
+        <v>360.9426574707031</v>
       </c>
       <c r="EV2" t="n">
-        <v>491.1550903320312</v>
+        <v>360.8186340332031</v>
       </c>
       <c r="EW2" t="n">
-        <v>488.275634765625</v>
+        <v>360.9657592773438</v>
       </c>
       <c r="EX2" t="n">
-        <v>486.6572265625</v>
+        <v>361.0881958007812</v>
       </c>
       <c r="EY2" t="n">
-        <v>484.5818481445312</v>
+        <v>361.4340515136719</v>
       </c>
       <c r="EZ2" t="n">
-        <v>482.4116516113281</v>
+        <v>363.6376342773438</v>
       </c>
       <c r="FA2" t="n">
-        <v>479.627685546875</v>
+        <v>365.0906372070312</v>
       </c>
       <c r="FB2" t="n">
-        <v>478.971923828125</v>
+        <v>366.3223266601562</v>
       </c>
       <c r="FC2" t="n">
-        <v>477.925048828125</v>
+        <v>367.63818359375</v>
       </c>
       <c r="FD2" t="n">
-        <v>475.9957885742188</v>
+        <v>368.6884155273438</v>
       </c>
       <c r="FE2" t="n">
-        <v>474.9191589355469</v>
+        <v>369.3983764648438</v>
       </c>
       <c r="FF2" t="n">
-        <v>473.4338989257812</v>
+        <v>371.0303955078125</v>
       </c>
       <c r="FG2" t="n">
-        <v>470.3024291992188</v>
+        <v>372.1535949707031</v>
       </c>
       <c r="FH2" t="n">
-        <v>468.3837585449219</v>
+        <v>373.8779296875</v>
       </c>
       <c r="FI2" t="n">
-        <v>467.3509521484375</v>
+        <v>374.4012756347656</v>
       </c>
       <c r="FJ2" t="n">
-        <v>466.6200561523438</v>
+        <v>374.8060913085938</v>
       </c>
       <c r="FK2" t="n">
-        <v>465.1462097167969</v>
+        <v>374.8571166992188</v>
       </c>
       <c r="FL2" t="n">
-        <v>463.8357849121094</v>
+        <v>374.7677001953125</v>
       </c>
       <c r="FM2" t="n">
-        <v>460.48779296875</v>
+        <v>375.0286254882812</v>
       </c>
       <c r="FN2" t="n">
-        <v>458.9000854492188</v>
+        <v>375.6186218261719</v>
       </c>
       <c r="FO2" t="n">
-        <v>457.3399047851562</v>
+        <v>376.2599487304688</v>
       </c>
       <c r="FP2" t="n">
-        <v>454.2396545410156</v>
+        <v>376.3277587890625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>450.2776489257812</v>
+        <v>376.0693054199219</v>
       </c>
       <c r="FR2" t="n">
-        <v>448.847900390625</v>
+        <v>375.1724548339844</v>
       </c>
       <c r="FS2" t="n">
-        <v>446.218994140625</v>
+        <v>375.4391174316406</v>
       </c>
       <c r="FT2" t="n">
-        <v>442.4571228027344</v>
+        <v>376.4081420898438</v>
       </c>
       <c r="FU2" t="n">
-        <v>440.1659545898438</v>
+        <v>376.69189453125</v>
       </c>
       <c r="FV2" t="n">
-        <v>434.2910766601562</v>
+        <v>374.7110290527344</v>
       </c>
       <c r="FW2" t="n">
-        <v>432.07666015625</v>
+        <v>369.0637817382812</v>
       </c>
       <c r="FX2" t="n">
-        <v>431.6588745117188</v>
+        <v>366.9495239257812</v>
       </c>
       <c r="FY2" t="n">
-        <v>431.1497802734375</v>
+        <v>363.9097595214844</v>
       </c>
       <c r="FZ2" t="n">
-        <v>427.8643798828125</v>
+        <v>363.3492736816406</v>
       </c>
       <c r="GA2" t="n">
-        <v>425.8196411132812</v>
+        <v>362.3684387207031</v>
       </c>
       <c r="GB2" t="n">
-        <v>420.2355346679688</v>
+        <v>361.4420776367188</v>
       </c>
       <c r="GC2" t="n">
-        <v>419.3914184570312</v>
+        <v>357.4356689453125</v>
       </c>
       <c r="GD2" t="n">
-        <v>418.4991760253906</v>
+        <v>356.4751586914062</v>
       </c>
       <c r="GE2" t="n">
-        <v>418.361572265625</v>
+        <v>355.6101684570312</v>
       </c>
       <c r="GF2" t="n">
-        <v>417.1481018066406</v>
+        <v>355.8241577148438</v>
       </c>
       <c r="GG2" t="n">
-        <v>415.5509033203125</v>
+        <v>353.5535278320312</v>
       </c>
       <c r="GH2" t="n">
-        <v>411.8116455078125</v>
+        <v>351.5650024414062</v>
       </c>
       <c r="GI2" t="n">
-        <v>407.766357421875</v>
+        <v>352.5482177734375</v>
       </c>
       <c r="GJ2" t="n">
-        <v>404.9777221679688</v>
+        <v>352.9640197753906</v>
       </c>
       <c r="GK2" t="n">
-        <v>402.5686340332031</v>
+        <v>352.1492309570312</v>
       </c>
       <c r="GL2" t="n">
-        <v>397.7424621582031</v>
+        <v>351.2755737304688</v>
       </c>
       <c r="GM2" t="n">
-        <v>393.7584838867188</v>
+        <v>349.1201171875</v>
       </c>
       <c r="GN2" t="n">
-        <v>391.3475036621094</v>
+        <v>348.3594055175781</v>
       </c>
       <c r="GO2" t="n">
-        <v>388.0202026367188</v>
+        <v>346.5228271484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>383.8681640625</v>
+        <v>344.6471557617188</v>
       </c>
       <c r="GQ2" t="n">
-        <v>377.6618957519531</v>
+        <v>346.6128845214844</v>
       </c>
       <c r="GR2" t="n">
-        <v>373.7511596679688</v>
+        <v>345.4327392578125</v>
       </c>
       <c r="GS2" t="n">
-        <v>371.313232421875</v>
+        <v>342.7249450683594</v>
       </c>
       <c r="GT2" t="n">
-        <v>369.1119995117188</v>
+        <v>338.1744995117188</v>
       </c>
       <c r="GU2" t="n">
-        <v>364.1130065917969</v>
+        <v>327.1191711425781</v>
       </c>
       <c r="GV2" t="n">
-        <v>361.7698974609375</v>
+        <v>319.5249938964844</v>
       </c>
       <c r="GW2" t="n">
-        <v>360.9631958007812</v>
+        <v>310.8721313476562</v>
       </c>
       <c r="GX2" t="n">
-        <v>361.4656372070312</v>
+        <v>298.9801025390625</v>
       </c>
       <c r="GY2" t="n">
-        <v>361.0107116699219</v>
+        <v>287.9964904785156</v>
       </c>
       <c r="GZ2" t="n">
-        <v>359.2619323730469</v>
+        <v>274.5212097167969</v>
       </c>
       <c r="HA2" t="n">
-        <v>358.1710205078125</v>
+        <v>235.0695190429688</v>
       </c>
       <c r="HB2" t="n">
-        <v>358.1213989257812</v>
+        <v>213.1099700927734</v>
       </c>
       <c r="HC2" t="n">
-        <v>358.0682678222656</v>
+        <v>202.2501220703125</v>
       </c>
       <c r="HD2" t="n">
-        <v>358.1709594726562</v>
+        <v>191.1661071777344</v>
       </c>
       <c r="HE2" t="n">
-        <v>355.5933227539062</v>
+        <v>182.4662933349609</v>
       </c>
       <c r="HF2" t="n">
-        <v>353.549072265625</v>
+        <v>180.8108673095703</v>
       </c>
       <c r="HG2" t="n">
-        <v>354.6770629882812</v>
+        <v>182.1453094482422</v>
       </c>
       <c r="HH2" t="n">
-        <v>358.3123779296875</v>
+        <v>188.3867645263672</v>
       </c>
       <c r="HI2" t="n">
-        <v>360.7732849121094</v>
+        <v>202.23046875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>366.4300537109375</v>
+        <v>205.0429077148438</v>
       </c>
       <c r="HK2" t="n">
-        <v>369.3369140625</v>
+        <v>212.1137237548828</v>
       </c>
       <c r="HL2" t="n">
-        <v>375.8880004882812</v>
+        <v>219.7646789550781</v>
       </c>
       <c r="HM2" t="n">
-        <v>382.9435424804688</v>
+        <v>222.3563995361328</v>
       </c>
       <c r="HN2" t="n">
-        <v>393.0212097167969</v>
+        <v>230.1041870117188</v>
       </c>
       <c r="HO2" t="n">
-        <v>406.5014953613281</v>
+        <v>248.0334167480469</v>
       </c>
       <c r="HP2" t="n">
-        <v>416.7537841796875</v>
+        <v>269.892578125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>420.2404174804688</v>
+        <v>279.7071838378906</v>
       </c>
       <c r="HR2" t="n">
-        <v>428.0332946777344</v>
+        <v>271.2236633300781</v>
       </c>
       <c r="HS2" t="n">
-        <v>433.0587158203125</v>
+        <v>267.4280700683594</v>
       </c>
       <c r="HT2" t="n">
-        <v>437.0830993652344</v>
+        <v>272.1866455078125</v>
       </c>
       <c r="HU2" t="n">
-        <v>440.4950561523438</v>
+        <v>278.7703552246094</v>
       </c>
       <c r="HV2" t="n">
-        <v>441.4417114257812</v>
+        <v>275.1021728515625</v>
       </c>
       <c r="HW2" t="n">
-        <v>441.2818603515625</v>
+        <v>319.3245849609375</v>
       </c>
       <c r="HX2" t="n">
-        <v>441.5115661621094</v>
+        <v>338.9822082519531</v>
       </c>
       <c r="HY2" t="n">
-        <v>441.6031494140625</v>
+        <v>359.1691284179688</v>
       </c>
       <c r="HZ2" t="n">
-        <v>441.8754577636719</v>
+        <v>361.0033874511719</v>
       </c>
       <c r="IA2" t="n">
-        <v>441.2070007324219</v>
+        <v>365.7109985351562</v>
       </c>
       <c r="IB2" t="n">
-        <v>440.7156982421875</v>
+        <v>376.4534301757812</v>
       </c>
       <c r="IC2" t="n">
-        <v>440.984619140625</v>
+        <v>388.9330749511719</v>
       </c>
       <c r="ID2" t="n">
-        <v>440.3225708007812</v>
+        <v>382.1817016601562</v>
       </c>
       <c r="IE2" t="n">
-        <v>438.038818359375</v>
+        <v>395.4159851074219</v>
       </c>
       <c r="IF2" t="n">
-        <v>435.8463134765625</v>
+        <v>397.9660339355469</v>
       </c>
       <c r="IG2" t="n">
-        <v>431.5499877929688</v>
+        <v>386.295654296875</v>
       </c>
       <c r="IH2" t="n">
-        <v>426.9340515136719</v>
+        <v>381.5811157226562</v>
       </c>
       <c r="II2" t="n">
-        <v>423.2913513183594</v>
+        <v>379.094970703125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>416.5760803222656</v>
+        <v>374.4107666015625</v>
       </c>
       <c r="IK2" t="n">
-        <v>404.1668701171875</v>
+        <v>375.9396667480469</v>
       </c>
       <c r="IL2" t="n">
-        <v>399.8702697753906</v>
+        <v>351.956787109375</v>
       </c>
       <c r="IM2" t="n">
-        <v>391.88720703125</v>
+        <v>340.8908386230469</v>
       </c>
       <c r="IN2" t="n">
-        <v>383.8477172851562</v>
+        <v>305.1696472167969</v>
       </c>
       <c r="IO2" t="n">
-        <v>377.1310119628906</v>
+        <v>302.494873046875</v>
       </c>
       <c r="IP2" t="n">
-        <v>374.5257568359375</v>
+        <v>301.9588623046875</v>
       </c>
       <c r="IQ2" t="n">
-        <v>370.5326538085938</v>
+        <v>341.5381469726562</v>
       </c>
       <c r="IR2" t="n">
-        <v>368.4705200195312</v>
+        <v>312.826171875</v>
       </c>
       <c r="IS2" t="n">
-        <v>368.2255249023438</v>
+        <v>322.4910888671875</v>
       </c>
       <c r="IT2" t="n">
-        <v>366.8360900878906</v>
+        <v>325.512451171875</v>
       </c>
       <c r="IU2" t="n">
-        <v>366.84375</v>
+        <v>301.9288635253906</v>
       </c>
       <c r="IV2" t="n">
-        <v>366.6082458496094</v>
+        <v>327.5205078125</v>
       </c>
       <c r="IW2" t="n">
-        <v>366.5164184570312</v>
+        <v>326.1857299804688</v>
       </c>
       <c r="IX2" t="n">
-        <v>366.1176147460938</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>366.2164611816406</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>366.4978637695312</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>368.3541564941406</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>371.0700073242188</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>372.06591796875</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>375.0330200195312</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>379.6202392578125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>383.72216796875</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>390.3966674804688</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>395.3129272460938</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>400.8126831054688</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>405.2283325195312</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>410.0447082519531</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>416.6584777832031</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>418.353271484375</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>420.322021484375</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>422.5226440429688</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>425.385498046875</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>427.1428833007812</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>428.5401000976562</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>430.2796020507812</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>432.4264526367188</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>433.2381591796875</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>433.3634643554688</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>433.6138305664062</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>433.9315185546875</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>434.1412963867188</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>434.1956176757812</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>433.9662475585938</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>433.7333984375</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>431.9596862792969</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>429.7822570800781</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>429.8831481933594</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>429.683349609375</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>427.9959716796875</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>427.7337036132812</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>427.4955749511719</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>427.1269226074219</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>426.8810729980469</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>426.7172241210938</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>426.5443725585938</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>426.5936889648438</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>426.6340942382812</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>427.0953369140625</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>427.0401000976562</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>427.3211059570312</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>428.8486938476562</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>431.0870056152344</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>432.1939697265625</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>432.4332275390625</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>432.5900268554688</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>432.6388549804688</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>433.247314453125</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>434.2112426757812</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>436.0496215820312</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>436.7921752929688</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>437.3672790527344</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>437.7904968261719</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>439.4372253417969</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>441.5069580078125</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>445.5275268554688</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>447.0312805175781</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>453.4042358398438</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>458.1202697753906</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>467.1482543945312</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>470.9108276367188</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>477.4383239746094</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>480.4008178710938</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>481.4631652832031</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>490.6666564941406</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>511.164306640625</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>522.1582641601562</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>530.707763671875</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>548.8656005859375</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>560.7265014648438</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>567.5816040039062</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>563.4146118164062</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>561.446533203125</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>558.1993408203125</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>545.058837890625</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>523.0096435546875</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>496.8876647949219</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>471.5113525390625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>438.0411987304688</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>418.2427368164062</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>413.3920593261719</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>407.6357421875</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>412.1669921875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>416.5643005371094</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>419.8328247070312</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>427.9530029296875</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>431.1635131835938</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>450.60888671875</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>451.7095336914062</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>455.2626342773438</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>458.3147888183594</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>455.6181335449219</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>427.4735107421875</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>411.8396606445312</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>434.8992614746094</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>430.7373657226562</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>370.6410217285156</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>367.7087707519531</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>362.2106323242188</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>394.3685913085938</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>408.933837890625</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>406.9538879394531</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>430.7017211914062</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>424.9322509765625</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>418.1271362304688</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>397.8768310546875</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>311.8633117675781</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>415.8923950195312</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>427.413818359375</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>404.0252685546875</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>389.5523376464844</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>419.7857055664062</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>386.5408935546875</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>422.6839599609375</v>
+        <v>323.7100830078125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>379.0131225585938</v>
+        <v>391.6510620117188</v>
       </c>
       <c r="B3" t="n">
-        <v>374.5147705078125</v>
+        <v>386.3576049804688</v>
       </c>
       <c r="C3" t="n">
-        <v>375.1861877441406</v>
+        <v>385.9458923339844</v>
       </c>
       <c r="D3" t="n">
-        <v>374.4818725585938</v>
+        <v>383.2333679199219</v>
       </c>
       <c r="E3" t="n">
-        <v>374.3673095703125</v>
+        <v>380.5832214355469</v>
       </c>
       <c r="F3" t="n">
-        <v>374.0268249511719</v>
+        <v>379.3766479492188</v>
       </c>
       <c r="G3" t="n">
-        <v>373.3218078613281</v>
+        <v>378.4022827148438</v>
       </c>
       <c r="H3" t="n">
-        <v>372.1603393554688</v>
+        <v>377.5352172851562</v>
       </c>
       <c r="I3" t="n">
-        <v>369.5032653808594</v>
+        <v>376.8349304199219</v>
       </c>
       <c r="J3" t="n">
-        <v>367.8215637207031</v>
+        <v>376.7133483886719</v>
       </c>
       <c r="K3" t="n">
-        <v>364.7831420898438</v>
+        <v>379.8462829589844</v>
       </c>
       <c r="L3" t="n">
-        <v>363.6959228515625</v>
+        <v>382.258544921875</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5926818847656</v>
+        <v>382.1262512207031</v>
       </c>
       <c r="N3" t="n">
-        <v>360.0262451171875</v>
+        <v>383.4999694824219</v>
       </c>
       <c r="O3" t="n">
-        <v>361.8570861816406</v>
+        <v>377.866455078125</v>
       </c>
       <c r="P3" t="n">
-        <v>357.2820739746094</v>
+        <v>377.6816711425781</v>
       </c>
       <c r="Q3" t="n">
-        <v>355.3917236328125</v>
+        <v>377.2348327636719</v>
       </c>
       <c r="R3" t="n">
-        <v>355.1265258789062</v>
+        <v>378.0164184570312</v>
       </c>
       <c r="S3" t="n">
-        <v>355.5631408691406</v>
+        <v>378.4011840820312</v>
       </c>
       <c r="T3" t="n">
-        <v>353.1037292480469</v>
+        <v>378.7432250976562</v>
       </c>
       <c r="U3" t="n">
-        <v>351.1405944824219</v>
+        <v>378.0337219238281</v>
       </c>
       <c r="V3" t="n">
-        <v>351.7726135253906</v>
+        <v>378.6510314941406</v>
       </c>
       <c r="W3" t="n">
-        <v>352.1714172363281</v>
+        <v>379.3416748046875</v>
       </c>
       <c r="X3" t="n">
-        <v>352.4588623046875</v>
+        <v>379.5265197753906</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.8163452148438</v>
+        <v>380.1974487304688</v>
       </c>
       <c r="Z3" t="n">
-        <v>367.1541137695312</v>
+        <v>379.0684509277344</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.0916137695312</v>
+        <v>379.5004272460938</v>
       </c>
       <c r="AB3" t="n">
-        <v>366.8795776367188</v>
+        <v>380.4822082519531</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.7223205566406</v>
+        <v>381.0494079589844</v>
       </c>
       <c r="AD3" t="n">
-        <v>364.5628662109375</v>
+        <v>381.9210510253906</v>
       </c>
       <c r="AE3" t="n">
-        <v>364.8978576660156</v>
+        <v>380.6076965332031</v>
       </c>
       <c r="AF3" t="n">
-        <v>362.8026733398438</v>
+        <v>378.6535949707031</v>
       </c>
       <c r="AG3" t="n">
-        <v>362.1090393066406</v>
+        <v>377.2132263183594</v>
       </c>
       <c r="AH3" t="n">
-        <v>354.6437377929688</v>
+        <v>376.2908630371094</v>
       </c>
       <c r="AI3" t="n">
-        <v>354.1910400390625</v>
+        <v>375.0007934570312</v>
       </c>
       <c r="AJ3" t="n">
-        <v>351.8404541015625</v>
+        <v>374.2485046386719</v>
       </c>
       <c r="AK3" t="n">
-        <v>353.7869262695312</v>
+        <v>373.5816345214844</v>
       </c>
       <c r="AL3" t="n">
-        <v>356.2246704101562</v>
+        <v>372.9744262695312</v>
       </c>
       <c r="AM3" t="n">
-        <v>362.3069458007812</v>
+        <v>373.0487976074219</v>
       </c>
       <c r="AN3" t="n">
-        <v>362.7618713378906</v>
+        <v>373.6727600097656</v>
       </c>
       <c r="AO3" t="n">
-        <v>363.52978515625</v>
+        <v>374.5358581542969</v>
       </c>
       <c r="AP3" t="n">
-        <v>364.4901123046875</v>
+        <v>375.6439819335938</v>
       </c>
       <c r="AQ3" t="n">
-        <v>365.4307556152344</v>
+        <v>376.5161743164062</v>
       </c>
       <c r="AR3" t="n">
-        <v>365.7433471679688</v>
+        <v>378.1470947265625</v>
       </c>
       <c r="AS3" t="n">
-        <v>365.6291809082031</v>
+        <v>378.0315551757812</v>
       </c>
       <c r="AT3" t="n">
-        <v>365.5248413085938</v>
+        <v>377.5831909179688</v>
       </c>
       <c r="AU3" t="n">
-        <v>364.8671875</v>
+        <v>377.0206298828125</v>
       </c>
       <c r="AV3" t="n">
-        <v>363.8892517089844</v>
+        <v>377.0754089355469</v>
       </c>
       <c r="AW3" t="n">
-        <v>362.5890502929688</v>
+        <v>377.3638000488281</v>
       </c>
       <c r="AX3" t="n">
-        <v>362.9424743652344</v>
+        <v>377.2462158203125</v>
       </c>
       <c r="AY3" t="n">
-        <v>363.8092651367188</v>
+        <v>377.1765441894531</v>
       </c>
       <c r="AZ3" t="n">
-        <v>364.7613525390625</v>
+        <v>377.0101928710938</v>
       </c>
       <c r="BA3" t="n">
-        <v>366.3016662597656</v>
+        <v>376.9329223632812</v>
       </c>
       <c r="BB3" t="n">
-        <v>367.4466247558594</v>
+        <v>376.8253173828125</v>
       </c>
       <c r="BC3" t="n">
-        <v>367.5125732421875</v>
+        <v>376.846435546875</v>
       </c>
       <c r="BD3" t="n">
-        <v>367.4956970214844</v>
+        <v>376.6231384277344</v>
       </c>
       <c r="BE3" t="n">
-        <v>366.6710510253906</v>
+        <v>376.4501037597656</v>
       </c>
       <c r="BF3" t="n">
-        <v>365.8636169433594</v>
+        <v>376.2658081054688</v>
       </c>
       <c r="BG3" t="n">
-        <v>363.4995727539062</v>
+        <v>376.0730590820312</v>
       </c>
       <c r="BH3" t="n">
-        <v>361.0033569335938</v>
+        <v>375.8522644042969</v>
       </c>
       <c r="BI3" t="n">
-        <v>358.9989624023438</v>
+        <v>375.6506652832031</v>
       </c>
       <c r="BJ3" t="n">
-        <v>359.2681274414062</v>
+        <v>375.3653564453125</v>
       </c>
       <c r="BK3" t="n">
-        <v>359.7113342285156</v>
+        <v>375.2646484375</v>
       </c>
       <c r="BL3" t="n">
-        <v>360.3699340820312</v>
+        <v>375.2192993164062</v>
       </c>
       <c r="BM3" t="n">
-        <v>361.7760925292969</v>
+        <v>375.206298828125</v>
       </c>
       <c r="BN3" t="n">
-        <v>363.1116638183594</v>
+        <v>375.23779296875</v>
       </c>
       <c r="BO3" t="n">
-        <v>364.1217346191406</v>
+        <v>375.7983703613281</v>
       </c>
       <c r="BP3" t="n">
-        <v>364.3944091796875</v>
+        <v>376.1880187988281</v>
       </c>
       <c r="BQ3" t="n">
-        <v>363.7599792480469</v>
+        <v>376.4306640625</v>
       </c>
       <c r="BR3" t="n">
-        <v>362.8878784179688</v>
+        <v>376.4203186035156</v>
       </c>
       <c r="BS3" t="n">
-        <v>361.6159057617188</v>
+        <v>376.2795715332031</v>
       </c>
       <c r="BT3" t="n">
-        <v>360.0850219726562</v>
+        <v>376.1169128417969</v>
       </c>
       <c r="BU3" t="n">
-        <v>360.2156677246094</v>
+        <v>375.9907836914062</v>
       </c>
       <c r="BV3" t="n">
-        <v>360.3704528808594</v>
+        <v>376.0820007324219</v>
       </c>
       <c r="BW3" t="n">
-        <v>360.5625305175781</v>
+        <v>376.0994567871094</v>
       </c>
       <c r="BX3" t="n">
-        <v>360.8375854492188</v>
+        <v>376.1091003417969</v>
       </c>
       <c r="BY3" t="n">
-        <v>360.9480590820312</v>
+        <v>376.1090087890625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>361.2414245605469</v>
+        <v>376.0899353027344</v>
       </c>
       <c r="CA3" t="n">
-        <v>361.6601257324219</v>
+        <v>376.0613403320312</v>
       </c>
       <c r="CB3" t="n">
-        <v>361.6893005371094</v>
+        <v>376.0214538574219</v>
       </c>
       <c r="CC3" t="n">
-        <v>361.1242370605469</v>
+        <v>375.9625244140625</v>
       </c>
       <c r="CD3" t="n">
-        <v>360.8893432617188</v>
+        <v>375.9016418457031</v>
       </c>
       <c r="CE3" t="n">
-        <v>360.862060546875</v>
+        <v>375.8390808105469</v>
       </c>
       <c r="CF3" t="n">
-        <v>361.064697265625</v>
+        <v>375.7770385742188</v>
       </c>
       <c r="CG3" t="n">
-        <v>361.5892028808594</v>
+        <v>375.7554626464844</v>
       </c>
       <c r="CH3" t="n">
-        <v>361.8382263183594</v>
+        <v>375.7461242675781</v>
       </c>
       <c r="CI3" t="n">
-        <v>361.9311218261719</v>
+        <v>375.6653137207031</v>
       </c>
       <c r="CJ3" t="n">
-        <v>362.6759338378906</v>
+        <v>375.6400451660156</v>
       </c>
       <c r="CK3" t="n">
-        <v>362.8956298828125</v>
+        <v>375.5892028808594</v>
       </c>
       <c r="CL3" t="n">
-        <v>362.9579772949219</v>
+        <v>375.5408935546875</v>
       </c>
       <c r="CM3" t="n">
-        <v>362.8469848632812</v>
+        <v>375.4362182617188</v>
       </c>
       <c r="CN3" t="n">
-        <v>363.3587646484375</v>
+        <v>375.3363342285156</v>
       </c>
       <c r="CO3" t="n">
-        <v>363.5271606445312</v>
+        <v>375.3678283691406</v>
       </c>
       <c r="CP3" t="n">
-        <v>363.8619689941406</v>
+        <v>375.3809814453125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>364.1039733886719</v>
+        <v>375.3960876464844</v>
       </c>
       <c r="CR3" t="n">
-        <v>364.08154296875</v>
+        <v>375.3997192382812</v>
       </c>
       <c r="CS3" t="n">
-        <v>364.3072204589844</v>
+        <v>375.4053649902344</v>
       </c>
       <c r="CT3" t="n">
-        <v>364.5289001464844</v>
+        <v>375.4199829101562</v>
       </c>
       <c r="CU3" t="n">
-        <v>364.7647094726562</v>
+        <v>375.4219970703125</v>
       </c>
       <c r="CV3" t="n">
-        <v>364.6158752441406</v>
+        <v>375.4296569824219</v>
       </c>
       <c r="CW3" t="n">
-        <v>364.3995971679688</v>
+        <v>375.4393310546875</v>
       </c>
       <c r="CX3" t="n">
-        <v>363.8118896484375</v>
+        <v>375.4606323242188</v>
       </c>
       <c r="CY3" t="n">
-        <v>363.2194213867188</v>
+        <v>375.5304565429688</v>
       </c>
       <c r="CZ3" t="n">
-        <v>363.1726379394531</v>
+        <v>375.5642395019531</v>
       </c>
       <c r="DA3" t="n">
-        <v>363.0472717285156</v>
+        <v>375.6319580078125</v>
       </c>
       <c r="DB3" t="n">
-        <v>363.0540771484375</v>
+        <v>375.7158508300781</v>
       </c>
       <c r="DC3" t="n">
-        <v>363.2665100097656</v>
+        <v>375.8232421875</v>
       </c>
       <c r="DD3" t="n">
-        <v>362.8066711425781</v>
+        <v>375.9289245605469</v>
       </c>
       <c r="DE3" t="n">
-        <v>362.5898742675781</v>
+        <v>376.2306518554688</v>
       </c>
       <c r="DF3" t="n">
-        <v>361.7644958496094</v>
+        <v>376.33935546875</v>
       </c>
       <c r="DG3" t="n">
-        <v>361.3464965820312</v>
+        <v>376.5182189941406</v>
       </c>
       <c r="DH3" t="n">
-        <v>360.9498901367188</v>
+        <v>376.8167419433594</v>
       </c>
       <c r="DI3" t="n">
-        <v>360.7185974121094</v>
+        <v>377.1429748535156</v>
       </c>
       <c r="DJ3" t="n">
-        <v>360.1684265136719</v>
+        <v>377.6784362792969</v>
       </c>
       <c r="DK3" t="n">
-        <v>360.151611328125</v>
+        <v>377.9749755859375</v>
       </c>
       <c r="DL3" t="n">
-        <v>360.1210021972656</v>
+        <v>377.9101867675781</v>
       </c>
       <c r="DM3" t="n">
-        <v>360.3876647949219</v>
+        <v>377.9814758300781</v>
       </c>
       <c r="DN3" t="n">
-        <v>360.5687561035156</v>
+        <v>378.2626647949219</v>
       </c>
       <c r="DO3" t="n">
-        <v>361.0475158691406</v>
+        <v>378.0137939453125</v>
       </c>
       <c r="DP3" t="n">
-        <v>361.4524536132812</v>
+        <v>377.9926147460938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>361.6772155761719</v>
+        <v>378.0799865722656</v>
       </c>
       <c r="DR3" t="n">
-        <v>361.5543823242188</v>
+        <v>378.1489562988281</v>
       </c>
       <c r="DS3" t="n">
-        <v>361.4505004882812</v>
+        <v>378.2046203613281</v>
       </c>
       <c r="DT3" t="n">
-        <v>361.3041381835938</v>
+        <v>378.2182312011719</v>
       </c>
       <c r="DU3" t="n">
-        <v>361.6354675292969</v>
+        <v>378.1760559082031</v>
       </c>
       <c r="DV3" t="n">
-        <v>361.8958740234375</v>
+        <v>378.1333923339844</v>
       </c>
       <c r="DW3" t="n">
-        <v>363.3041076660156</v>
+        <v>378.212646484375</v>
       </c>
       <c r="DX3" t="n">
-        <v>363.4235534667969</v>
+        <v>378.6130676269531</v>
       </c>
       <c r="DY3" t="n">
-        <v>363.92431640625</v>
+        <v>379.1154479980469</v>
       </c>
       <c r="DZ3" t="n">
-        <v>365.9173889160156</v>
+        <v>379.4916076660156</v>
       </c>
       <c r="EA3" t="n">
-        <v>368.2024536132812</v>
+        <v>379.6800231933594</v>
       </c>
       <c r="EB3" t="n">
-        <v>368.0008850097656</v>
+        <v>379.7610778808594</v>
       </c>
       <c r="EC3" t="n">
-        <v>368.7569580078125</v>
+        <v>379.82568359375</v>
       </c>
       <c r="ED3" t="n">
-        <v>369.1475830078125</v>
+        <v>379.1322937011719</v>
       </c>
       <c r="EE3" t="n">
-        <v>370.7020263671875</v>
+        <v>378.2757568359375</v>
       </c>
       <c r="EF3" t="n">
-        <v>373.4557800292969</v>
+        <v>374.2535400390625</v>
       </c>
       <c r="EG3" t="n">
-        <v>372.6021118164062</v>
+        <v>372.4748840332031</v>
       </c>
       <c r="EH3" t="n">
-        <v>372.6239318847656</v>
+        <v>370.6681823730469</v>
       </c>
       <c r="EI3" t="n">
-        <v>369.7389221191406</v>
+        <v>370.4094848632812</v>
       </c>
       <c r="EJ3" t="n">
-        <v>368.8824157714844</v>
+        <v>370.2398376464844</v>
       </c>
       <c r="EK3" t="n">
-        <v>365.5862731933594</v>
+        <v>371.1060485839844</v>
       </c>
       <c r="EL3" t="n">
-        <v>364.1705017089844</v>
+        <v>372.1244506835938</v>
       </c>
       <c r="EM3" t="n">
-        <v>361.5973205566406</v>
+        <v>372.8968200683594</v>
       </c>
       <c r="EN3" t="n">
-        <v>358.5753173828125</v>
+        <v>373.7494201660156</v>
       </c>
       <c r="EO3" t="n">
-        <v>363.4967041015625</v>
+        <v>375.2671203613281</v>
       </c>
       <c r="EP3" t="n">
-        <v>363.2980346679688</v>
+        <v>375.6051330566406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>365.6961364746094</v>
+        <v>376.5178833007812</v>
       </c>
       <c r="ER3" t="n">
-        <v>366.3214111328125</v>
+        <v>376.0475463867188</v>
       </c>
       <c r="ES3" t="n">
-        <v>371.77001953125</v>
+        <v>375.5353698730469</v>
       </c>
       <c r="ET3" t="n">
-        <v>377.0513000488281</v>
+        <v>374.958251953125</v>
       </c>
       <c r="EU3" t="n">
-        <v>375.128662109375</v>
+        <v>373.8226623535156</v>
       </c>
       <c r="EV3" t="n">
-        <v>371.9481506347656</v>
+        <v>372.0752563476562</v>
       </c>
       <c r="EW3" t="n">
-        <v>366.3063659667969</v>
+        <v>372.8130493164062</v>
       </c>
       <c r="EX3" t="n">
-        <v>363.9944152832031</v>
+        <v>374.1639709472656</v>
       </c>
       <c r="EY3" t="n">
-        <v>362.2671508789062</v>
+        <v>375.0394592285156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>360.2811584472656</v>
+        <v>377.3773193359375</v>
       </c>
       <c r="FA3" t="n">
-        <v>358.0666198730469</v>
+        <v>378.7293090820312</v>
       </c>
       <c r="FB3" t="n">
-        <v>362.5538940429688</v>
+        <v>379.5250854492188</v>
       </c>
       <c r="FC3" t="n">
-        <v>369.2530212402344</v>
+        <v>380.88330078125</v>
       </c>
       <c r="FD3" t="n">
-        <v>370.1207580566406</v>
+        <v>383.1148376464844</v>
       </c>
       <c r="FE3" t="n">
-        <v>369.277587890625</v>
+        <v>384.3441162109375</v>
       </c>
       <c r="FF3" t="n">
-        <v>368.4308776855469</v>
+        <v>385.1141052246094</v>
       </c>
       <c r="FG3" t="n">
-        <v>368.280029296875</v>
+        <v>383.1106567382812</v>
       </c>
       <c r="FH3" t="n">
-        <v>369.6827087402344</v>
+        <v>378.9498901367188</v>
       </c>
       <c r="FI3" t="n">
-        <v>368.8535461425781</v>
+        <v>378.7998657226562</v>
       </c>
       <c r="FJ3" t="n">
-        <v>367.1493530273438</v>
+        <v>382.1018981933594</v>
       </c>
       <c r="FK3" t="n">
-        <v>364.0890197753906</v>
+        <v>383.5995483398438</v>
       </c>
       <c r="FL3" t="n">
-        <v>363.1399230957031</v>
+        <v>384.1817932128906</v>
       </c>
       <c r="FM3" t="n">
-        <v>360.8107299804688</v>
+        <v>384.2676086425781</v>
       </c>
       <c r="FN3" t="n">
-        <v>359.8057250976562</v>
+        <v>382.6692504882812</v>
       </c>
       <c r="FO3" t="n">
-        <v>358.6876220703125</v>
+        <v>383.2290344238281</v>
       </c>
       <c r="FP3" t="n">
-        <v>357.6651916503906</v>
+        <v>385.5291748046875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>360.8922424316406</v>
+        <v>386.1284484863281</v>
       </c>
       <c r="FR3" t="n">
-        <v>360.8936157226562</v>
+        <v>386.60302734375</v>
       </c>
       <c r="FS3" t="n">
-        <v>362.0360717773438</v>
+        <v>386.0248107910156</v>
       </c>
       <c r="FT3" t="n">
-        <v>360.2250061035156</v>
+        <v>386.2805786132812</v>
       </c>
       <c r="FU3" t="n">
-        <v>359.7740173339844</v>
+        <v>384.5924377441406</v>
       </c>
       <c r="FV3" t="n">
-        <v>361.1012573242188</v>
+        <v>384.661376953125</v>
       </c>
       <c r="FW3" t="n">
-        <v>361.1740112304688</v>
+        <v>384.1037292480469</v>
       </c>
       <c r="FX3" t="n">
-        <v>361.419189453125</v>
+        <v>383.2753601074219</v>
       </c>
       <c r="FY3" t="n">
-        <v>361.89599609375</v>
+        <v>382.7952880859375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>362.1668090820312</v>
+        <v>380.4026184082031</v>
       </c>
       <c r="GA3" t="n">
-        <v>361.6412353515625</v>
+        <v>379.1253967285156</v>
       </c>
       <c r="GB3" t="n">
-        <v>359.7573547363281</v>
+        <v>379.1449890136719</v>
       </c>
       <c r="GC3" t="n">
-        <v>357.6942443847656</v>
+        <v>380.906005859375</v>
       </c>
       <c r="GD3" t="n">
-        <v>357.4429016113281</v>
+        <v>380.2604064941406</v>
       </c>
       <c r="GE3" t="n">
-        <v>357.3094482421875</v>
+        <v>377.4947814941406</v>
       </c>
       <c r="GF3" t="n">
-        <v>357.0420227050781</v>
+        <v>380.2654418945312</v>
       </c>
       <c r="GG3" t="n">
-        <v>356.7881469726562</v>
+        <v>380.615478515625</v>
       </c>
       <c r="GH3" t="n">
-        <v>356.3141479492188</v>
+        <v>384.0905456542969</v>
       </c>
       <c r="GI3" t="n">
-        <v>356.0264892578125</v>
+        <v>387.881103515625</v>
       </c>
       <c r="GJ3" t="n">
-        <v>356.7462768554688</v>
+        <v>389.4472961425781</v>
       </c>
       <c r="GK3" t="n">
-        <v>357.4803161621094</v>
+        <v>392.4493713378906</v>
       </c>
       <c r="GL3" t="n">
-        <v>357.4000549316406</v>
+        <v>398.7963562011719</v>
       </c>
       <c r="GM3" t="n">
-        <v>357.5916137695312</v>
+        <v>406.162841796875</v>
       </c>
       <c r="GN3" t="n">
-        <v>357.6455993652344</v>
+        <v>409.839111328125</v>
       </c>
       <c r="GO3" t="n">
-        <v>358.0041198730469</v>
+        <v>416.3434143066406</v>
       </c>
       <c r="GP3" t="n">
-        <v>355.9286499023438</v>
+        <v>412.4231872558594</v>
       </c>
       <c r="GQ3" t="n">
-        <v>354.23095703125</v>
+        <v>403.0766296386719</v>
       </c>
       <c r="GR3" t="n">
-        <v>350.9661254882812</v>
+        <v>400.7601318359375</v>
       </c>
       <c r="GS3" t="n">
-        <v>347.8440246582031</v>
+        <v>399.95751953125</v>
       </c>
       <c r="GT3" t="n">
-        <v>346.8587341308594</v>
+        <v>399.2303771972656</v>
       </c>
       <c r="GU3" t="n">
-        <v>342.9280395507812</v>
+        <v>395.433837890625</v>
       </c>
       <c r="GV3" t="n">
-        <v>343.364990234375</v>
+        <v>394.276123046875</v>
       </c>
       <c r="GW3" t="n">
-        <v>343.7560424804688</v>
+        <v>392.5275573730469</v>
       </c>
       <c r="GX3" t="n">
-        <v>341.5117492675781</v>
+        <v>390.0214538574219</v>
       </c>
       <c r="GY3" t="n">
-        <v>341.0768432617188</v>
+        <v>388.4158630371094</v>
       </c>
       <c r="GZ3" t="n">
-        <v>341.2677307128906</v>
+        <v>391.2729187011719</v>
       </c>
       <c r="HA3" t="n">
-        <v>340.9645690917969</v>
+        <v>405.0513305664062</v>
       </c>
       <c r="HB3" t="n">
-        <v>340.1924743652344</v>
+        <v>406.2796936035156</v>
       </c>
       <c r="HC3" t="n">
-        <v>339.4251403808594</v>
+        <v>412.8829040527344</v>
       </c>
       <c r="HD3" t="n">
-        <v>336.9465942382812</v>
+        <v>416.0367736816406</v>
       </c>
       <c r="HE3" t="n">
-        <v>337.4269104003906</v>
+        <v>417.5743713378906</v>
       </c>
       <c r="HF3" t="n">
-        <v>337.6840209960938</v>
+        <v>412.2306518554688</v>
       </c>
       <c r="HG3" t="n">
-        <v>338.97509765625</v>
+        <v>404.3328247070312</v>
       </c>
       <c r="HH3" t="n">
-        <v>342.2061462402344</v>
+        <v>416.6469421386719</v>
       </c>
       <c r="HI3" t="n">
-        <v>342.5205688476562</v>
+        <v>434.9404907226562</v>
       </c>
       <c r="HJ3" t="n">
-        <v>344.2453002929688</v>
+        <v>440.9148254394531</v>
       </c>
       <c r="HK3" t="n">
-        <v>344.2446899414062</v>
+        <v>451.3971557617188</v>
       </c>
       <c r="HL3" t="n">
-        <v>348.9690856933594</v>
+        <v>455.1605224609375</v>
       </c>
       <c r="HM3" t="n">
-        <v>353.649658203125</v>
+        <v>457.1684875488281</v>
       </c>
       <c r="HN3" t="n">
-        <v>356.7749328613281</v>
+        <v>456.9241027832031</v>
       </c>
       <c r="HO3" t="n">
-        <v>358.2157897949219</v>
+        <v>462.4761047363281</v>
       </c>
       <c r="HP3" t="n">
-        <v>358.2322998046875</v>
+        <v>474.5354309082031</v>
       </c>
       <c r="HQ3" t="n">
-        <v>357.4742126464844</v>
+        <v>473.1546936035156</v>
       </c>
       <c r="HR3" t="n">
-        <v>356.8899841308594</v>
+        <v>491.3756713867188</v>
       </c>
       <c r="HS3" t="n">
-        <v>356.0291748046875</v>
+        <v>497.9767761230469</v>
       </c>
       <c r="HT3" t="n">
-        <v>358.9674682617188</v>
+        <v>503.73876953125</v>
       </c>
       <c r="HU3" t="n">
-        <v>358.828369140625</v>
+        <v>499.6114501953125</v>
       </c>
       <c r="HV3" t="n">
-        <v>358.8865966796875</v>
+        <v>565.1198120117188</v>
       </c>
       <c r="HW3" t="n">
-        <v>359.7802734375</v>
+        <v>542.5810546875</v>
       </c>
       <c r="HX3" t="n">
-        <v>360.0231018066406</v>
+        <v>567.4176025390625</v>
       </c>
       <c r="HY3" t="n">
-        <v>360.1213684082031</v>
+        <v>528.2463989257812</v>
       </c>
       <c r="HZ3" t="n">
-        <v>360.3578491210938</v>
+        <v>557.9396362304688</v>
       </c>
       <c r="IA3" t="n">
-        <v>361.3468933105469</v>
+        <v>533.602783203125</v>
       </c>
       <c r="IB3" t="n">
-        <v>362.1781311035156</v>
+        <v>532.6740112304688</v>
       </c>
       <c r="IC3" t="n">
-        <v>362.3068237304688</v>
+        <v>533.188720703125</v>
       </c>
       <c r="ID3" t="n">
-        <v>361.8133239746094</v>
+        <v>568.7219848632812</v>
       </c>
       <c r="IE3" t="n">
-        <v>360.9870910644531</v>
+        <v>568.433349609375</v>
       </c>
       <c r="IF3" t="n">
-        <v>360.8391723632812</v>
+        <v>550.1720581054688</v>
       </c>
       <c r="IG3" t="n">
-        <v>360.6064758300781</v>
+        <v>537.5000610351562</v>
       </c>
       <c r="IH3" t="n">
-        <v>359.1961975097656</v>
+        <v>538.1234741210938</v>
       </c>
       <c r="II3" t="n">
-        <v>359.3905639648438</v>
+        <v>511.8580017089844</v>
       </c>
       <c r="IJ3" t="n">
-        <v>359.4430236816406</v>
+        <v>547.2268676757812</v>
       </c>
       <c r="IK3" t="n">
-        <v>358.6234130859375</v>
+        <v>544.1708374023438</v>
       </c>
       <c r="IL3" t="n">
-        <v>358.8093566894531</v>
+        <v>592.7803344726562</v>
       </c>
       <c r="IM3" t="n">
-        <v>359.308349609375</v>
+        <v>618.3015747070312</v>
       </c>
       <c r="IN3" t="n">
-        <v>359.0414428710938</v>
+        <v>584.2789916992188</v>
       </c>
       <c r="IO3" t="n">
-        <v>357.7202453613281</v>
+        <v>580.5040893554688</v>
       </c>
       <c r="IP3" t="n">
-        <v>356.4984741210938</v>
+        <v>580.1126708984375</v>
       </c>
       <c r="IQ3" t="n">
-        <v>354.0079956054688</v>
+        <v>639.9602661132812</v>
       </c>
       <c r="IR3" t="n">
-        <v>354.6154479980469</v>
+        <v>680.5458984375</v>
       </c>
       <c r="IS3" t="n">
-        <v>354.3909606933594</v>
+        <v>684.5509033203125</v>
       </c>
       <c r="IT3" t="n">
-        <v>352.9717102050781</v>
+        <v>682.4181518554688</v>
       </c>
       <c r="IU3" t="n">
-        <v>351.9365539550781</v>
+        <v>683.9954833984375</v>
       </c>
       <c r="IV3" t="n">
-        <v>352.3441162109375</v>
+        <v>657.6984252929688</v>
       </c>
       <c r="IW3" t="n">
-        <v>352.391845703125</v>
+        <v>647.1187133789062</v>
       </c>
       <c r="IX3" t="n">
-        <v>351.6796264648438</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>351.8923950195312</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>351.9955749511719</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>352.1669311523438</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>351.8750610351562</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>353.7969055175781</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>352.8653564453125</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>353.7926940917969</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>353.8607177734375</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>354.9347229003906</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>357.2059326171875</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>357.5588989257812</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>357.8970642089844</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>357.578369140625</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>357.5820922851562</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>358.1972961425781</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>358.2093811035156</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>358.5805358886719</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>358.9772338867188</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>359.4754028320312</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>359.316650390625</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>358.6353759765625</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>358.3349304199219</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>358.4937744140625</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>358.4427490234375</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>358.2801818847656</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>358.363037109375</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>358.7835693359375</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>359.1146850585938</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>360.0054321289062</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>361.4847412109375</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>360.8116760253906</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>357.9979553222656</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>356.5862121582031</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>356.5050659179688</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>358.21337890625</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>357.7336730957031</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>357.5629272460938</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>357.3628845214844</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>357.2500305175781</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>357.2696533203125</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>357.4046325683594</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>357.2429809570312</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>357.0516357421875</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>356.5449523925781</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>356.7820129394531</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>356.6166076660156</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>356.1507873535156</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>355.2597351074219</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>355.9176940917969</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>356.6893005371094</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>356.844482421875</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>357.1658020019531</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>358.2085571289062</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>359.4732360839844</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>360.5494995117188</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>361.5759887695312</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>362.1015014648438</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>362.08544921875</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>363.3834228515625</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>365.2108154296875</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>370.1543579101562</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>373.5771789550781</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>378.4292602539062</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>378.8176574707031</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>377.4062194824219</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>384.0006103515625</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>382.9419555664062</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>378.4474487304688</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>376.1023864746094</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>372.723876953125</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>369.6308288574219</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>375.3907775878906</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>376.5819702148438</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>368.6447448730469</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>366.4045104980469</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>371.0614929199219</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>362.884033203125</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>365.6146240234375</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>367.5110473632812</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>382.590576171875</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>416.64208984375</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>423.6414794921875</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>420.9653015136719</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>389.49072265625</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>371.8539733886719</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>367.3199157714844</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>386.3728332519531</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>401.3880615234375</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>412.0847473144531</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>444.305908203125</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>480.8355407714844</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>506.8579711914062</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>521.2466430664062</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>514.9694213867188</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>511.2774353027344</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>514.6495971679688</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>516.9658203125</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>527.7520751953125</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>576.2249755859375</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>596.6707153320312</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>579.7205810546875</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>601.6651000976562</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>622.3302612304688</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>622.0900268554688</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>618.22119140625</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>616.0060424804688</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>616.62158203125</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>578.2733154296875</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>590.52099609375</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>600.406982421875</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>642.3262329101562</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>657.8792724609375</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>660.2163696289062</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>645.54638671875</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>656.1014404296875</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>648.4786376953125</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>613.17236328125</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>649.709228515625</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>632.2027587890625</v>
+        <v>645.765625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1036.720458984375</v>
+        <v>1003.327026367188</v>
       </c>
       <c r="B4" t="n">
-        <v>1031.981201171875</v>
+        <v>1008.169311523438</v>
       </c>
       <c r="C4" t="n">
-        <v>1032.684692382812</v>
+        <v>1016.301391601562</v>
       </c>
       <c r="D4" t="n">
-        <v>1033.931762695312</v>
+        <v>1028.204833984375</v>
       </c>
       <c r="E4" t="n">
-        <v>1035.186889648438</v>
+        <v>1045.207763671875</v>
       </c>
       <c r="F4" t="n">
-        <v>1036.445434570312</v>
+        <v>1060.450073242188</v>
       </c>
       <c r="G4" t="n">
-        <v>1038.571655273438</v>
+        <v>1075.397094726562</v>
       </c>
       <c r="H4" t="n">
-        <v>1041.964111328125</v>
+        <v>1089.719604492188</v>
       </c>
       <c r="I4" t="n">
-        <v>1050.42822265625</v>
+        <v>1106.316650390625</v>
       </c>
       <c r="J4" t="n">
-        <v>1066.005981445312</v>
+        <v>1126.062622070312</v>
       </c>
       <c r="K4" t="n">
-        <v>1087.499145507812</v>
+        <v>1139.706420898438</v>
       </c>
       <c r="L4" t="n">
-        <v>1102.264404296875</v>
+        <v>1162.86669921875</v>
       </c>
       <c r="M4" t="n">
-        <v>1151.168090820312</v>
+        <v>1186.614379882812</v>
       </c>
       <c r="N4" t="n">
-        <v>1163.662353515625</v>
+        <v>1217.445068359375</v>
       </c>
       <c r="O4" t="n">
-        <v>1195.780029296875</v>
+        <v>1423.526123046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1201.003295898438</v>
+        <v>1441.596923828125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1207.670288085938</v>
+        <v>1460.8974609375</v>
       </c>
       <c r="R4" t="n">
-        <v>1214.28076171875</v>
+        <v>1477.850830078125</v>
       </c>
       <c r="S4" t="n">
-        <v>1221.683715820312</v>
+        <v>1494.778076171875</v>
       </c>
       <c r="T4" t="n">
-        <v>1238.483276367188</v>
+        <v>1520.713256835938</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.395629882812</v>
+        <v>1541.683471679688</v>
       </c>
       <c r="V4" t="n">
-        <v>1251.612915039062</v>
+        <v>1560.12841796875</v>
       </c>
       <c r="W4" t="n">
-        <v>1259.476928710938</v>
+        <v>1580.906982421875</v>
       </c>
       <c r="X4" t="n">
-        <v>1263.152587890625</v>
+        <v>1605.4404296875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1253.120849609375</v>
+        <v>1634.2177734375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1245.683471679688</v>
+        <v>1660.67626953125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1246.91650390625</v>
+        <v>1682.92333984375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1260.50244140625</v>
+        <v>1705.363037109375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1275.986450195312</v>
+        <v>1732.66162109375</v>
       </c>
       <c r="AD4" t="n">
-        <v>1291.733520507812</v>
+        <v>1755.245483398438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1296.904296875</v>
+        <v>1772.159423828125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1307.98828125</v>
+        <v>1795.45703125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1315.254272460938</v>
+        <v>1812.021484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1346.175659179688</v>
+        <v>1823.082397460938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1341.54248046875</v>
+        <v>1840.27392578125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1349.865356445312</v>
+        <v>1850.745361328125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1344.953979492188</v>
+        <v>1860.886840820312</v>
       </c>
       <c r="AL4" t="n">
-        <v>1341.73974609375</v>
+        <v>1873.026489257812</v>
       </c>
       <c r="AM4" t="n">
-        <v>1333.540771484375</v>
+        <v>1878.67724609375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1330.139770507812</v>
+        <v>1878.40771484375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1325.489135742188</v>
+        <v>1879.126708984375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1318.81689453125</v>
+        <v>1879.4267578125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1309.328247070312</v>
+        <v>1880.140991210938</v>
       </c>
       <c r="AR4" t="n">
-        <v>1305.972778320312</v>
+        <v>1882.101806640625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1301.951049804688</v>
+        <v>1885.765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1296.108154296875</v>
+        <v>1895.467041015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1295.143188476562</v>
+        <v>1906.735229492188</v>
       </c>
       <c r="AV4" t="n">
-        <v>1292.896240234375</v>
+        <v>1911.08154296875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1288.399291992188</v>
+        <v>1912.376708984375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1280.841064453125</v>
+        <v>1914.150268554688</v>
       </c>
       <c r="AY4" t="n">
-        <v>1269.365112304688</v>
+        <v>1914.465698242188</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1257.984619140625</v>
+        <v>1915.416137695312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1245.461059570312</v>
+        <v>1916.327758789062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1240.5224609375</v>
+        <v>1916.617797851562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1236.93994140625</v>
+        <v>1916.522338867188</v>
       </c>
       <c r="BD4" t="n">
-        <v>1232.615112304688</v>
+        <v>1917.379028320312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1230.717651367188</v>
+        <v>1918.672729492188</v>
       </c>
       <c r="BF4" t="n">
-        <v>1230.062255859375</v>
+        <v>1921.027221679688</v>
       </c>
       <c r="BG4" t="n">
-        <v>1230.552490234375</v>
+        <v>1923.9599609375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1230.52001953125</v>
+        <v>1927.931884765625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1229.905639648438</v>
+        <v>1930.937133789062</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1228.924438476562</v>
+        <v>1934.381713867188</v>
       </c>
       <c r="BK4" t="n">
-        <v>1226.124633789062</v>
+        <v>1935.3837890625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1217.032470703125</v>
+        <v>1935.728149414062</v>
       </c>
       <c r="BM4" t="n">
-        <v>1200.06787109375</v>
+        <v>1936.002075195312</v>
       </c>
       <c r="BN4" t="n">
-        <v>1190.719482421875</v>
+        <v>1936.086181640625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1180.203491210938</v>
+        <v>1934.924072265625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1177.246704101562</v>
+        <v>1934.09716796875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1175.52197265625</v>
+        <v>1933.825927734375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1174.405029296875</v>
+        <v>1934.37451171875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1172.502319335938</v>
+        <v>1935.165893554688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1169.89306640625</v>
+        <v>1936.082641601562</v>
       </c>
       <c r="BU4" t="n">
-        <v>1166.673828125</v>
+        <v>1936.430541992188</v>
       </c>
       <c r="BV4" t="n">
-        <v>1162.989135742188</v>
+        <v>1936.176025390625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1159.368286132812</v>
+        <v>1936.078369140625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1154.612915039062</v>
+        <v>1936.019287109375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1144.891357421875</v>
+        <v>1935.976318359375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1140.101684570312</v>
+        <v>1935.963134765625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1135.7666015625</v>
+        <v>1935.986450195312</v>
       </c>
       <c r="CB4" t="n">
-        <v>1131.503784179688</v>
+        <v>1936.016479492188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1129.934326171875</v>
+        <v>1935.996337890625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1126.842041015625</v>
+        <v>1935.941284179688</v>
       </c>
       <c r="CE4" t="n">
-        <v>1121.858154296875</v>
+        <v>1935.870971679688</v>
       </c>
       <c r="CF4" t="n">
-        <v>1119.771606445312</v>
+        <v>1935.781372070312</v>
       </c>
       <c r="CG4" t="n">
-        <v>1116.713134765625</v>
+        <v>1935.50830078125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1113.99072265625</v>
+        <v>1935.251098632812</v>
       </c>
       <c r="CI4" t="n">
-        <v>1112.833374023438</v>
+        <v>1934.721557617188</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1111.877197265625</v>
+        <v>1934.373168945312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1111.11669921875</v>
+        <v>1934.018432617188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1110.182006835938</v>
+        <v>1933.654174804688</v>
       </c>
       <c r="CM4" t="n">
-        <v>1109.559692382812</v>
+        <v>1933.362182617188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1107.173583984375</v>
+        <v>1933.055786132812</v>
       </c>
       <c r="CO4" t="n">
-        <v>1105.997924804688</v>
+        <v>1932.715698242188</v>
       </c>
       <c r="CP4" t="n">
-        <v>1104.655883789062</v>
+        <v>1932.421508789062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1103.372680664062</v>
+        <v>1932.179809570312</v>
       </c>
       <c r="CR4" t="n">
-        <v>1103.151489257812</v>
+        <v>1932.233032226562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1100.72314453125</v>
+        <v>1932.220581054688</v>
       </c>
       <c r="CT4" t="n">
-        <v>1097.928588867188</v>
+        <v>1932.221435546875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1096.607788085938</v>
+        <v>1932.208251953125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1096.076171875</v>
+        <v>1932.200317382812</v>
       </c>
       <c r="CW4" t="n">
-        <v>1097.946533203125</v>
+        <v>1932.191162109375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1107.401000976562</v>
+        <v>1932.177001953125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1115.560424804688</v>
+        <v>1932.08837890625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1123.936889648438</v>
+        <v>1931.993896484375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1127.469604492188</v>
+        <v>1931.857055664062</v>
       </c>
       <c r="DB4" t="n">
-        <v>1129.384643554688</v>
+        <v>1931.640380859375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1130.036254882812</v>
+        <v>1931.284057617188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1130.480224609375</v>
+        <v>1930.851318359375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1130.453247070312</v>
+        <v>1929.694702148438</v>
       </c>
       <c r="DF4" t="n">
-        <v>1131.8984375</v>
+        <v>1928.667724609375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1133.390625</v>
+        <v>1927.2275390625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1138.537353515625</v>
+        <v>1925.571899414062</v>
       </c>
       <c r="DI4" t="n">
-        <v>1143.959594726562</v>
+        <v>1923.805297851562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1151.2255859375</v>
+        <v>1921.618408203125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1154.120849609375</v>
+        <v>1922.07470703125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1156.302124023438</v>
+        <v>1921.90380859375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1157.532958984375</v>
+        <v>1921.690551757812</v>
       </c>
       <c r="DN4" t="n">
-        <v>1158.617553710938</v>
+        <v>1921.749633789062</v>
       </c>
       <c r="DO4" t="n">
-        <v>1158.6748046875</v>
+        <v>1926.16357421875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1157.953247070312</v>
+        <v>1927.660888671875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1157.475463867188</v>
+        <v>1924.486450195312</v>
       </c>
       <c r="DR4" t="n">
-        <v>1157.717407226562</v>
+        <v>1922.81640625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1158.05029296875</v>
+        <v>1921.421020507812</v>
       </c>
       <c r="DT4" t="n">
-        <v>1159.04638671875</v>
+        <v>1919.811645507812</v>
       </c>
       <c r="DU4" t="n">
-        <v>1162.743896484375</v>
+        <v>1920.729858398438</v>
       </c>
       <c r="DV4" t="n">
-        <v>1166.608520507812</v>
+        <v>1922.864135742188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1178.061157226562</v>
+        <v>1924.9130859375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1183.245361328125</v>
+        <v>1927.068481445312</v>
       </c>
       <c r="DY4" t="n">
-        <v>1184.3193359375</v>
+        <v>1926.701293945312</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1190.994262695312</v>
+        <v>1925.167358398438</v>
       </c>
       <c r="EA4" t="n">
-        <v>1195.545166015625</v>
+        <v>1924.316528320312</v>
       </c>
       <c r="EB4" t="n">
-        <v>1211.679809570312</v>
+        <v>1923.39794921875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1218.472045898438</v>
+        <v>1922.738159179688</v>
       </c>
       <c r="ED4" t="n">
-        <v>1225.232666015625</v>
+        <v>1922.6630859375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1237.169555664062</v>
+        <v>1922.816650390625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1256.399169921875</v>
+        <v>1922.981811523438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1288.660522460938</v>
+        <v>1923.43115234375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1298.82080078125</v>
+        <v>1924.920166015625</v>
       </c>
       <c r="EI4" t="n">
-        <v>1320.86279296875</v>
+        <v>1924.943115234375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1335.03173828125</v>
+        <v>1924.032470703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1362.85009765625</v>
+        <v>1920.478515625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1371.146850585938</v>
+        <v>1916.452270507812</v>
       </c>
       <c r="EM4" t="n">
-        <v>1389.895629882812</v>
+        <v>1913.966064453125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1401.359741210938</v>
+        <v>1912.936645507812</v>
       </c>
       <c r="EO4" t="n">
-        <v>1404.277221679688</v>
+        <v>1913.361572265625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1410.976318359375</v>
+        <v>1913.522216796875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1443.707885742188</v>
+        <v>1913.5146484375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1461.6005859375</v>
+        <v>1915.302612304688</v>
       </c>
       <c r="ES4" t="n">
-        <v>1496.371215820312</v>
+        <v>1916.426391601562</v>
       </c>
       <c r="ET4" t="n">
-        <v>1528.9521484375</v>
+        <v>1917.101806640625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1548.145629882812</v>
+        <v>1916.502319335938</v>
       </c>
       <c r="EV4" t="n">
-        <v>1571.439453125</v>
+        <v>1907.76220703125</v>
       </c>
       <c r="EW4" t="n">
-        <v>1634.24658203125</v>
+        <v>1896.863159179688</v>
       </c>
       <c r="EX4" t="n">
-        <v>1676.01123046875</v>
+        <v>1876.177124023438</v>
       </c>
       <c r="EY4" t="n">
-        <v>1705.3271484375</v>
+        <v>1862.401000976562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1734.539306640625</v>
+        <v>1829.510131835938</v>
       </c>
       <c r="FA4" t="n">
-        <v>1769.47119140625</v>
+        <v>1811.130004882812</v>
       </c>
       <c r="FB4" t="n">
-        <v>1781.91552734375</v>
+        <v>1800.649536132812</v>
       </c>
       <c r="FC4" t="n">
-        <v>1817.627685546875</v>
+        <v>1780.387329101562</v>
       </c>
       <c r="FD4" t="n">
-        <v>1852.109741210938</v>
+        <v>1750.930541992188</v>
       </c>
       <c r="FE4" t="n">
-        <v>1874.910400390625</v>
+        <v>1734.421630859375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1897.947875976562</v>
+        <v>1706.17529296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1935.408569335938</v>
+        <v>1689.285400390625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1959.1142578125</v>
+        <v>1659.018676757812</v>
       </c>
       <c r="FI4" t="n">
-        <v>2003.078247070312</v>
+        <v>1644.190307617188</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2031.9521484375</v>
+        <v>1602.805908203125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2077.70068359375</v>
+        <v>1584.595703125</v>
       </c>
       <c r="FL4" t="n">
-        <v>2099.361572265625</v>
+        <v>1575.217895507812</v>
       </c>
       <c r="FM4" t="n">
-        <v>2140.860107421875</v>
+        <v>1557.881469726562</v>
       </c>
       <c r="FN4" t="n">
-        <v>2156.830322265625</v>
+        <v>1548.393310546875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2178.9873046875</v>
+        <v>1519.69580078125</v>
       </c>
       <c r="FP4" t="n">
-        <v>2202.171142578125</v>
+        <v>1493.301391601562</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2227.528564453125</v>
+        <v>1484.418579101562</v>
       </c>
       <c r="FR4" t="n">
-        <v>2239.628173828125</v>
+        <v>1462.53759765625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2261.8154296875</v>
+        <v>1448.630126953125</v>
       </c>
       <c r="FT4" t="n">
-        <v>2274.349365234375</v>
+        <v>1418.474731445312</v>
       </c>
       <c r="FU4" t="n">
-        <v>2274.225830078125</v>
+        <v>1387.679565429688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2269.734375</v>
+        <v>1351.853881835938</v>
       </c>
       <c r="FW4" t="n">
-        <v>2263.606201171875</v>
+        <v>1303.766723632812</v>
       </c>
       <c r="FX4" t="n">
-        <v>2261.12060546875</v>
+        <v>1289.681030273438</v>
       </c>
       <c r="FY4" t="n">
-        <v>2259.1865234375</v>
+        <v>1254.651733398438</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2259.804931640625</v>
+        <v>1240.808471679688</v>
       </c>
       <c r="GA4" t="n">
-        <v>2261.651123046875</v>
+        <v>1204.725219726562</v>
       </c>
       <c r="GB4" t="n">
-        <v>2270.886474609375</v>
+        <v>1188.78759765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2279.495849609375</v>
+        <v>1162.941162109375</v>
       </c>
       <c r="GD4" t="n">
-        <v>2288.2412109375</v>
+        <v>1145.795043945312</v>
       </c>
       <c r="GE4" t="n">
-        <v>2287.74853515625</v>
+        <v>1124.08349609375</v>
       </c>
       <c r="GF4" t="n">
-        <v>2288.30419921875</v>
+        <v>1101.748046875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2290.411376953125</v>
+        <v>1099.176391601562</v>
       </c>
       <c r="GH4" t="n">
-        <v>2306.029296875</v>
+        <v>1076.68212890625</v>
       </c>
       <c r="GI4" t="n">
-        <v>2310.5419921875</v>
+        <v>1045.341430664062</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2308.900146484375</v>
+        <v>1030.60693359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>2305.391845703125</v>
+        <v>1001.325988769531</v>
       </c>
       <c r="GL4" t="n">
-        <v>2300.88916015625</v>
+        <v>964.065185546875</v>
       </c>
       <c r="GM4" t="n">
-        <v>2295.77880859375</v>
+        <v>928.9866333007812</v>
       </c>
       <c r="GN4" t="n">
-        <v>2293.343505859375</v>
+        <v>910.0227661132812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2283.6015625</v>
+        <v>874.4091796875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2283.646728515625</v>
+        <v>858.146728515625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2282.5927734375</v>
+        <v>851.7325439453125</v>
       </c>
       <c r="GR4" t="n">
-        <v>2279.716552734375</v>
+        <v>838.6661987304688</v>
       </c>
       <c r="GS4" t="n">
-        <v>2278.736572265625</v>
+        <v>836.2952880859375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2278.365966796875</v>
+        <v>833.6593017578125</v>
       </c>
       <c r="GU4" t="n">
-        <v>2276.12744140625</v>
+        <v>833.9960327148438</v>
       </c>
       <c r="GV4" t="n">
-        <v>2269.407470703125</v>
+        <v>834.390625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2263.333740234375</v>
+        <v>836.1737060546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2261.571533203125</v>
+        <v>841.6820068359375</v>
       </c>
       <c r="GY4" t="n">
-        <v>2257.50634765625</v>
+        <v>856.8285522460938</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2257.244873046875</v>
+        <v>857.680419921875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2257.65234375</v>
+        <v>853.0235595703125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2257.462158203125</v>
+        <v>851.43994140625</v>
       </c>
       <c r="HC4" t="n">
-        <v>2256.85888671875</v>
+        <v>856.4384765625</v>
       </c>
       <c r="HD4" t="n">
-        <v>2256.646484375</v>
+        <v>869.55908203125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2256.99365234375</v>
+        <v>861.583251953125</v>
       </c>
       <c r="HF4" t="n">
-        <v>2257.173095703125</v>
+        <v>860.3027954101562</v>
       </c>
       <c r="HG4" t="n">
-        <v>2257.45751953125</v>
+        <v>857.3148803710938</v>
       </c>
       <c r="HH4" t="n">
-        <v>2246.654052734375</v>
+        <v>848.2470092773438</v>
       </c>
       <c r="HI4" t="n">
-        <v>2248.883544921875</v>
+        <v>813.9141235351562</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2248.90087890625</v>
+        <v>766.0926513671875</v>
       </c>
       <c r="HK4" t="n">
-        <v>2246.2470703125</v>
+        <v>760.3492431640625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2211.302001953125</v>
+        <v>749.456787109375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2176.155029296875</v>
+        <v>747.5381469726562</v>
       </c>
       <c r="HN4" t="n">
-        <v>2166.687255859375</v>
+        <v>746.215576171875</v>
       </c>
       <c r="HO4" t="n">
-        <v>2144.199462890625</v>
+        <v>721.1714477539062</v>
       </c>
       <c r="HP4" t="n">
-        <v>2140.84423828125</v>
+        <v>706.5792846679688</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2140.67333984375</v>
+        <v>705.4470825195312</v>
       </c>
       <c r="HR4" t="n">
-        <v>2138.39501953125</v>
+        <v>690.8570556640625</v>
       </c>
       <c r="HS4" t="n">
-        <v>2139.1513671875</v>
+        <v>676.279052734375</v>
       </c>
       <c r="HT4" t="n">
-        <v>2133.431640625</v>
+        <v>676.1068115234375</v>
       </c>
       <c r="HU4" t="n">
-        <v>2125.196533203125</v>
+        <v>687.9085693359375</v>
       </c>
       <c r="HV4" t="n">
-        <v>2121.4775390625</v>
+        <v>678.4757080078125</v>
       </c>
       <c r="HW4" t="n">
-        <v>2122.763916015625</v>
+        <v>674.0532836914062</v>
       </c>
       <c r="HX4" t="n">
-        <v>2122.0830078125</v>
+        <v>671.1099853515625</v>
       </c>
       <c r="HY4" t="n">
-        <v>2122.039306640625</v>
+        <v>741.0887451171875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2122.0810546875</v>
+        <v>755.0642700195312</v>
       </c>
       <c r="IA4" t="n">
-        <v>2122.99951171875</v>
+        <v>803.5816040039062</v>
       </c>
       <c r="IB4" t="n">
-        <v>2123.6669921875</v>
+        <v>805.5170288085938</v>
       </c>
       <c r="IC4" t="n">
-        <v>2123.4140625</v>
+        <v>819.4884033203125</v>
       </c>
       <c r="ID4" t="n">
-        <v>2123.845458984375</v>
+        <v>820.5911254882812</v>
       </c>
       <c r="IE4" t="n">
-        <v>2123.3642578125</v>
+        <v>778.7769775390625</v>
       </c>
       <c r="IF4" t="n">
-        <v>2120.22021484375</v>
+        <v>813.0933837890625</v>
       </c>
       <c r="IG4" t="n">
-        <v>2121.569580078125</v>
+        <v>887.4827270507812</v>
       </c>
       <c r="IH4" t="n">
-        <v>2124.302490234375</v>
+        <v>866.8951416015625</v>
       </c>
       <c r="II4" t="n">
-        <v>2124.38916015625</v>
+        <v>883.2008056640625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2127.10791015625</v>
+        <v>812.8673095703125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2145.473876953125</v>
+        <v>793.4011840820312</v>
       </c>
       <c r="IL4" t="n">
-        <v>2147.5107421875</v>
+        <v>733.9188842773438</v>
       </c>
       <c r="IM4" t="n">
-        <v>2147.336669921875</v>
+        <v>673.9119873046875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2148.6064453125</v>
+        <v>740.58447265625</v>
       </c>
       <c r="IO4" t="n">
-        <v>2152.056884765625</v>
+        <v>727.3037109375</v>
       </c>
       <c r="IP4" t="n">
-        <v>2159.140380859375</v>
+        <v>723.349853515625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2175.682373046875</v>
+        <v>579.425537109375</v>
       </c>
       <c r="IR4" t="n">
-        <v>2168.4169921875</v>
+        <v>531.4401245117188</v>
       </c>
       <c r="IS4" t="n">
-        <v>2170.48681640625</v>
+        <v>531.615966796875</v>
       </c>
       <c r="IT4" t="n">
-        <v>2171.818603515625</v>
+        <v>519.52880859375</v>
       </c>
       <c r="IU4" t="n">
-        <v>2168.648681640625</v>
+        <v>558.8958740234375</v>
       </c>
       <c r="IV4" t="n">
-        <v>2166.7216796875</v>
+        <v>520.2326049804688</v>
       </c>
       <c r="IW4" t="n">
-        <v>2164.87451171875</v>
+        <v>518.0313720703125</v>
       </c>
       <c r="IX4" t="n">
-        <v>2164.84912109375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2163.006591796875</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2161.716796875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2156.791259765625</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2157.161376953125</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2159.499755859375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2158.445556640625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2153.64404296875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2151.774658203125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2139.8857421875</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2135.53125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2131.89794921875</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2129.058837890625</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2130.530517578125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2129.423583984375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2122.6591796875</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2116.143798828125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2110.794921875</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2107.445556640625</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2105.317626953125</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2104.50244140625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2106.717041015625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2107.14111328125</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2106.704833984375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2106.81884765625</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2106.955810546875</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2105.809814453125</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2102.319091796875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2098.59814453125</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2092.48583984375</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2081.7529296875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2073.255615234375</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2077.9013671875</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2076.809326171875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2076.934326171875</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2078.29736328125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2079.28076171875</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2081.872802734375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2086.852294921875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2090.53271484375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2090.904541015625</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2091.267333984375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2091.046875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2090.790283203125</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2090.0576171875</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2090.63525390625</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2091.324951171875</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2097.7177734375</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2113.832275390625</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2122.025390625</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2115.66552734375</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2114.63427734375</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2114.528076171875</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2114.164306640625</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2110.0986328125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2081.845703125</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2066.43359375</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2057.242431640625</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2051.299560546875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2039.1533203125</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2034.2939453125</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>1982.150024414062</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1939.285400390625</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1845.683837890625</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1768.060546875</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1676.175170898438</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1604.557373046875</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1552.092041015625</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1474.604370117188</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1434.17529296875</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1353.562744140625</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1240.866821289062</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1173.369750976562</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1098.175170898438</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>957.1502075195312</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>881.9258422851562</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>808.859619140625</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>758.7811279296875</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>730.1137084960938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>689.6776123046875</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>660.0000610351562</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>645.7340087890625</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>642.2078857421875</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>642.7301025390625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>709.4105224609375</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>774.186279296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>802.0573120117188</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>832.2860107421875</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>844.423095703125</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>866.107177734375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>900.0667114257812</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>925.5476684570312</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>928.1265869140625</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>931.9443969726562</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>977.120849609375</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>989.7068481445312</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>986.3406982421875</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>986.5491943359375</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>959.5466918945312</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>816.9459838867188</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>675.0872802734375</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>640.6316528320312</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>679.0227661132812</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>710.8433837890625</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>658.0604858398438</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>651.2999877929688</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>649.2730712890625</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>636.8427124023438</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>631.5697631835938</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>600.818115234375</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>591.5369873046875</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>574.5831909179688</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>562.9328002929688</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>536.2555541992188</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>546.0623168945312</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>547.4937133789062</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>556.5123901367188</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>628.6170043945312</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>602.8994750976562</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>600.3536987304688</v>
+        <v>518.7930297851562</v>
       </c>
     </row>
   </sheetData>
